--- a/Data/t13.1.xlsx
+++ b/Data/t13.1.xlsx
@@ -396,7 +396,7 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.7865071175981487</v>
+        <v>78.65071175981487</v>
       </c>
     </row>
     <row r="3">
@@ -416,7 +416,7 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.7938224546681244</v>
+        <v>79.38224546681244</v>
       </c>
     </row>
     <row r="4">
@@ -436,7 +436,7 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.7993944238548555</v>
+        <v>79.93944238548555</v>
       </c>
     </row>
     <row r="5">
@@ -456,7 +456,7 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.8039231583666384</v>
+        <v>80.39231583666384</v>
       </c>
     </row>
     <row r="6">
@@ -476,7 +476,7 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.8077045975715199</v>
+        <v>80.770459757152</v>
       </c>
     </row>
     <row r="7">
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="D7">
-        <v>0.8109812900026417</v>
+        <v>81.09812900026418</v>
       </c>
     </row>
     <row r="8">
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="D8">
-        <v>0.4926419762980476</v>
+        <v>49.26419762980476</v>
       </c>
     </row>
     <row r="9">
@@ -536,7 +536,7 @@
         </is>
       </c>
       <c r="D9">
-        <v>0.4991381772695486</v>
+        <v>49.91381772695486</v>
       </c>
     </row>
     <row r="10">
@@ -556,7 +556,7 @@
         </is>
       </c>
       <c r="D10">
-        <v>0.5054671414383645</v>
+        <v>50.54671414383645</v>
       </c>
     </row>
     <row r="11">
@@ -576,7 +576,7 @@
         </is>
       </c>
       <c r="D11">
-        <v>0.5128578105476016</v>
+        <v>51.28578105476016</v>
       </c>
     </row>
     <row r="12">
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="D12">
-        <v>0.5001221758580504</v>
+        <v>50.01221758580504</v>
       </c>
     </row>
     <row r="13">
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="D13">
-        <v>0.5012536671502129</v>
+        <v>50.12536671502129</v>
       </c>
     </row>
     <row r="14">
@@ -636,7 +636,7 @@
         </is>
       </c>
       <c r="D14">
-        <v>0.4580006611702714</v>
+        <v>45.80006611702714</v>
       </c>
     </row>
     <row r="15">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="D15">
-        <v>0.454062386116282</v>
+        <v>45.4062386116282</v>
       </c>
     </row>
     <row r="16">
@@ -676,7 +676,7 @@
         </is>
       </c>
       <c r="D16">
-        <v>0.4421577889203788</v>
+        <v>44.21577889203788</v>
       </c>
     </row>
     <row r="17">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="D17">
-        <v>0.4518213641869915</v>
+        <v>45.18213641869914</v>
       </c>
     </row>
     <row r="18">
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="D18">
-        <v>0.4369008683884065</v>
+        <v>43.69008683884065</v>
       </c>
     </row>
     <row r="19">
@@ -736,7 +736,7 @@
         </is>
       </c>
       <c r="D19">
-        <v>0.462712092210579</v>
+        <v>46.2712092210579</v>
       </c>
     </row>
     <row r="20">
@@ -756,7 +756,7 @@
         </is>
       </c>
       <c r="D20">
-        <v>0.03464131512777616</v>
+        <v>3.464131512777616</v>
       </c>
     </row>
     <row r="21">
@@ -776,7 +776,7 @@
         </is>
       </c>
       <c r="D21">
-        <v>0.04507579115326656</v>
+        <v>4.507579115326656</v>
       </c>
     </row>
     <row r="22">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="D22">
-        <v>0.06330935251798561</v>
+        <v>6.330935251798561</v>
       </c>
     </row>
     <row r="23">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="D23">
-        <v>0.06103644636061008</v>
+        <v>6.103644636061007</v>
       </c>
     </row>
     <row r="24">
@@ -836,7 +836,7 @@
         </is>
       </c>
       <c r="D24">
-        <v>0.06321660839818052</v>
+        <v>6.321660839818052</v>
       </c>
     </row>
     <row r="25">
@@ -856,7 +856,7 @@
         </is>
       </c>
       <c r="D25">
-        <v>0.03854157493963396</v>
+        <v>3.854157493963396</v>
       </c>
     </row>
     <row r="26">
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="D26">
-        <v>0.2938651413001012</v>
+        <v>29.38651413001012</v>
       </c>
     </row>
     <row r="27">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="D27">
-        <v>0.2946842773985758</v>
+        <v>29.46842773985758</v>
       </c>
     </row>
     <row r="28">
@@ -916,7 +916,7 @@
         </is>
       </c>
       <c r="D28">
-        <v>0.2939321270256522</v>
+        <v>29.39321270256522</v>
       </c>
     </row>
     <row r="29">
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="D29">
-        <v>0.2910653478190368</v>
+        <v>29.10653478190368</v>
       </c>
     </row>
     <row r="30">
@@ -956,7 +956,7 @@
         </is>
       </c>
       <c r="D30">
-        <v>0.3075824217134694</v>
+        <v>30.75824217134694</v>
       </c>
     </row>
     <row r="31">
@@ -976,7 +976,7 @@
         </is>
       </c>
       <c r="D31">
-        <v>0.3097276228524288</v>
+        <v>30.97276228524288</v>
       </c>
     </row>
     <row r="32">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="D32">
-        <v>0.7636017064536625</v>
+        <v>76.36017064536625</v>
       </c>
     </row>
     <row r="33">
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="D33">
-        <v>0.7737200078962009</v>
+        <v>77.37200078962009</v>
       </c>
     </row>
     <row r="34">
@@ -1036,7 +1036,7 @@
         </is>
       </c>
       <c r="D34">
-        <v>0.7828903005997799</v>
+        <v>78.28903005997799</v>
       </c>
     </row>
     <row r="35">
@@ -1056,7 +1056,7 @@
         </is>
       </c>
       <c r="D35">
-        <v>0.7878771920585602</v>
+        <v>78.78771920585602</v>
       </c>
     </row>
     <row r="36">
@@ -1093,7 +1093,7 @@
         </is>
       </c>
       <c r="D37">
-        <v>0.7996041648739352</v>
+        <v>79.96041648739352</v>
       </c>
     </row>
     <row r="38">
@@ -1113,7 +1113,7 @@
         </is>
       </c>
       <c r="D38">
-        <v>0.4353635290914042</v>
+        <v>43.53635290914042</v>
       </c>
     </row>
     <row r="39">
@@ -1133,7 +1133,7 @@
         </is>
       </c>
       <c r="D39">
-        <v>0.4538161979792904</v>
+        <v>45.38161979792904</v>
       </c>
     </row>
     <row r="40">
@@ -1153,7 +1153,7 @@
         </is>
       </c>
       <c r="D40">
-        <v>0.438141037016006</v>
+        <v>43.8141037016006</v>
       </c>
     </row>
     <row r="41">
@@ -1173,7 +1173,7 @@
         </is>
       </c>
       <c r="D41">
-        <v>0.4427124475573578</v>
+        <v>44.27124475573578</v>
       </c>
     </row>
     <row r="42">
@@ -1210,7 +1210,7 @@
         </is>
       </c>
       <c r="D43">
-        <v>0.4346097581963687</v>
+        <v>43.46097581963686</v>
       </c>
     </row>
     <row r="44">
@@ -1230,7 +1230,7 @@
         </is>
       </c>
       <c r="D44">
-        <v>0.3958972497050013</v>
+        <v>39.58972497050014</v>
       </c>
     </row>
     <row r="45">
@@ -1250,7 +1250,7 @@
         </is>
       </c>
       <c r="D45">
-        <v>0.4041598621754033</v>
+        <v>40.41598621754034</v>
       </c>
     </row>
     <row r="46">
@@ -1270,7 +1270,7 @@
         </is>
       </c>
       <c r="D46">
-        <v>0.3725733754480605</v>
+        <v>37.25733754480605</v>
       </c>
     </row>
     <row r="47">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="D47">
-        <v>0.3780434286516755</v>
+        <v>37.80434286516755</v>
       </c>
     </row>
     <row r="48">
@@ -1327,7 +1327,7 @@
         </is>
       </c>
       <c r="D49">
-        <v>0.3874537475260305</v>
+        <v>38.74537475260305</v>
       </c>
     </row>
     <row r="50">
@@ -1347,7 +1347,7 @@
         </is>
       </c>
       <c r="D50">
-        <v>0.03946627938640283</v>
+        <v>3.946627938640283</v>
       </c>
     </row>
     <row r="51">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D51">
-        <v>0.04965633580388708</v>
+        <v>4.965633580388708</v>
       </c>
     </row>
     <row r="52">
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="D52">
-        <v>0.06556766156794548</v>
+        <v>6.556766156794549</v>
       </c>
     </row>
     <row r="53">
@@ -1407,7 +1407,7 @@
         </is>
       </c>
       <c r="D53">
-        <v>0.06466901890568223</v>
+        <v>6.466901890568224</v>
       </c>
     </row>
     <row r="54">
@@ -1444,7 +1444,7 @@
         </is>
       </c>
       <c r="D55">
-        <v>0.04715601067033818</v>
+        <v>4.715601067033818</v>
       </c>
     </row>
     <row r="56">
@@ -1464,7 +1464,7 @@
         </is>
       </c>
       <c r="D56">
-        <v>0.3282381773622584</v>
+        <v>32.82381773622583</v>
       </c>
     </row>
     <row r="57">
@@ -1484,7 +1484,7 @@
         </is>
       </c>
       <c r="D57">
-        <v>0.3199038099169104</v>
+        <v>31.99038099169104</v>
       </c>
     </row>
     <row r="58">
@@ -1504,7 +1504,7 @@
         </is>
       </c>
       <c r="D58">
-        <v>0.3447670085530752</v>
+        <v>34.47670085530752</v>
       </c>
     </row>
     <row r="59">
@@ -1524,7 +1524,7 @@
         </is>
       </c>
       <c r="D59">
-        <v>0.3451822985237067</v>
+        <v>34.51822985237067</v>
       </c>
     </row>
     <row r="60">
@@ -1561,7 +1561,7 @@
         </is>
       </c>
       <c r="D61">
-        <v>0.3650116169004389</v>
+        <v>36.50116169004389</v>
       </c>
     </row>
     <row r="62">
@@ -1581,7 +1581,7 @@
         </is>
       </c>
       <c r="D62">
-        <v>0.765625</v>
+        <v>76.5625</v>
       </c>
     </row>
     <row r="63">
@@ -1601,7 +1601,7 @@
         </is>
       </c>
       <c r="D63">
-        <v>0.7799819657348963</v>
+        <v>77.99819657348964</v>
       </c>
     </row>
     <row r="64">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="D64">
-        <v>0.7809734513274337</v>
+        <v>78.09734513274337</v>
       </c>
     </row>
     <row r="65">
@@ -1641,7 +1641,7 @@
         </is>
       </c>
       <c r="D65">
-        <v>0.7905258583224685</v>
+        <v>79.05258583224685</v>
       </c>
     </row>
     <row r="66">
@@ -1678,7 +1678,7 @@
         </is>
       </c>
       <c r="D67">
-        <v>0.7888982338099243</v>
+        <v>78.88982338099242</v>
       </c>
     </row>
     <row r="68">
@@ -1698,7 +1698,7 @@
         </is>
       </c>
       <c r="D68">
-        <v>0.4664522058823529</v>
+        <v>46.64522058823529</v>
       </c>
     </row>
     <row r="69">
@@ -1718,7 +1718,7 @@
         </is>
       </c>
       <c r="D69">
-        <v>0.4625788999098287</v>
+        <v>46.25788999098287</v>
       </c>
     </row>
     <row r="70">
@@ -1738,7 +1738,7 @@
         </is>
       </c>
       <c r="D70">
-        <v>0.447787610619469</v>
+        <v>44.7787610619469</v>
       </c>
     </row>
     <row r="71">
@@ -1758,7 +1758,7 @@
         </is>
       </c>
       <c r="D71">
-        <v>0.4763146458061712</v>
+        <v>47.63146458061712</v>
       </c>
     </row>
     <row r="72">
@@ -1795,7 +1795,7 @@
         </is>
       </c>
       <c r="D73">
-        <v>0.4550042052144659</v>
+        <v>45.50042052144659</v>
       </c>
     </row>
     <row r="74">
@@ -1815,7 +1815,7 @@
         </is>
       </c>
       <c r="D74">
-        <v>0.4191176470588235</v>
+        <v>41.91176470588236</v>
       </c>
     </row>
     <row r="75">
@@ -1835,7 +1835,7 @@
         </is>
       </c>
       <c r="D75">
-        <v>0.4220018034265104</v>
+        <v>42.20018034265104</v>
       </c>
     </row>
     <row r="76">
@@ -1855,7 +1855,7 @@
         </is>
       </c>
       <c r="D76">
-        <v>0.3858407079646018</v>
+        <v>38.58407079646018</v>
       </c>
     </row>
     <row r="77">
@@ -1875,7 +1875,7 @@
         </is>
       </c>
       <c r="D77">
-        <v>0.4059104737070839</v>
+        <v>40.59104737070839</v>
       </c>
     </row>
     <row r="78">
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="D79">
-        <v>0.4104289318755256</v>
+        <v>41.04289318755256</v>
       </c>
     </row>
     <row r="80">
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="D80">
-        <v>0.04733455882352941</v>
+        <v>4.733455882352941</v>
       </c>
     </row>
     <row r="81">
@@ -1952,7 +1952,7 @@
         </is>
       </c>
       <c r="D81">
-        <v>0.0405770964833183</v>
+        <v>4.05770964833183</v>
       </c>
     </row>
     <row r="82">
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="D82">
-        <v>0.06194690265486726</v>
+        <v>6.194690265486726</v>
       </c>
     </row>
     <row r="83">
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="D83">
-        <v>0.07040417209908735</v>
+        <v>7.040417209908735</v>
       </c>
     </row>
     <row r="84">
@@ -2029,7 +2029,7 @@
         </is>
       </c>
       <c r="D85">
-        <v>0.04457527333894028</v>
+        <v>4.457527333894029</v>
       </c>
     </row>
     <row r="86">
@@ -2049,7 +2049,7 @@
         </is>
       </c>
       <c r="D86">
-        <v>0.2987132352941176</v>
+        <v>29.87132352941176</v>
       </c>
     </row>
     <row r="87">
@@ -2069,7 +2069,7 @@
         </is>
       </c>
       <c r="D87">
-        <v>0.3174030658250676</v>
+        <v>31.74030658250676</v>
       </c>
     </row>
     <row r="88">
@@ -2089,7 +2089,7 @@
         </is>
       </c>
       <c r="D88">
-        <v>0.3331858407079646</v>
+        <v>33.31858407079646</v>
       </c>
     </row>
     <row r="89">
@@ -2109,7 +2109,7 @@
         </is>
       </c>
       <c r="D89">
-        <v>0.3142112125162972</v>
+        <v>31.42112125162972</v>
       </c>
     </row>
     <row r="90">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="D91">
-        <v>0.3338940285954584</v>
+        <v>33.38940285954584</v>
       </c>
     </row>
   </sheetData>

--- a/Data/t13.1.xlsx
+++ b/Data/t13.1.xlsx
@@ -392,11 +392,11 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>01/07/2013</t>
+          <t>01/10/2013</t>
         </is>
       </c>
       <c r="D2">
-        <v>78.65071175981487</v>
+        <v>78.75336125633515</v>
       </c>
     </row>
     <row r="3">
@@ -412,11 +412,11 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>01/07/2015</t>
+          <t>01/10/2015</t>
         </is>
       </c>
       <c r="D3">
-        <v>79.38224546681244</v>
+        <v>79.45616811315006</v>
       </c>
     </row>
     <row r="4">
@@ -432,11 +432,11 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>01/07/2017</t>
+          <t>01/10/2017</t>
         </is>
       </c>
       <c r="D4">
-        <v>79.93944238548555</v>
+        <v>79.99796933698853</v>
       </c>
     </row>
     <row r="5">
@@ -452,11 +452,11 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>01/07/2019</t>
+          <t>01/10/2019</t>
         </is>
       </c>
       <c r="D5">
-        <v>80.39231583666384</v>
+        <v>80.4452653074825</v>
       </c>
     </row>
     <row r="6">
@@ -472,11 +472,11 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>01/07/2021</t>
+          <t>01/10/2021</t>
         </is>
       </c>
       <c r="D6">
-        <v>80.770459757152</v>
+        <v>80.81270990862525</v>
       </c>
     </row>
     <row r="7">
@@ -492,11 +492,11 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
+          <t>01/10/2023</t>
         </is>
       </c>
       <c r="D7">
-        <v>81.09812900026418</v>
+        <v>81.13527944735173</v>
       </c>
     </row>
     <row r="8">
@@ -512,11 +512,11 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>01/07/2013</t>
+          <t>01/10/2013</t>
         </is>
       </c>
       <c r="D8">
-        <v>49.26419762980476</v>
+        <v>49.14231734258324</v>
       </c>
     </row>
     <row r="9">
@@ -532,11 +532,11 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>01/07/2015</t>
+          <t>01/10/2015</t>
         </is>
       </c>
       <c r="D9">
-        <v>49.91381772695486</v>
+        <v>49.92480907402129</v>
       </c>
     </row>
     <row r="10">
@@ -552,11 +552,11 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>01/07/2017</t>
+          <t>01/10/2017</t>
         </is>
       </c>
       <c r="D10">
-        <v>50.54671414383645</v>
+        <v>50.61282508739103</v>
       </c>
     </row>
     <row r="11">
@@ -572,11 +572,11 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>01/07/2019</t>
+          <t>01/10/2019</t>
         </is>
       </c>
       <c r="D11">
-        <v>51.28578105476016</v>
+        <v>51.13267992212379</v>
       </c>
     </row>
     <row r="12">
@@ -592,11 +592,11 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>01/07/2021</t>
+          <t>01/10/2021</t>
         </is>
       </c>
       <c r="D12">
-        <v>50.01221758580504</v>
+        <v>50.54599696042929</v>
       </c>
     </row>
     <row r="13">
@@ -612,11 +612,11 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
+          <t>01/10/2023</t>
         </is>
       </c>
       <c r="D13">
-        <v>50.12536671502129</v>
+        <v>50.46478162897979</v>
       </c>
     </row>
     <row r="14">
@@ -632,11 +632,11 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>01/07/2013</t>
+          <t>01/10/2013</t>
         </is>
       </c>
       <c r="D14">
-        <v>45.80006611702714</v>
+        <v>46.06795485670302</v>
       </c>
     </row>
     <row r="15">
@@ -652,11 +652,11 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>01/07/2015</t>
+          <t>01/10/2015</t>
         </is>
       </c>
       <c r="D15">
-        <v>45.4062386116282</v>
+        <v>45.39271286895155</v>
       </c>
     </row>
     <row r="16">
@@ -672,11 +672,11 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>01/07/2017</t>
+          <t>01/10/2017</t>
         </is>
       </c>
       <c r="D16">
-        <v>44.21577889203788</v>
+        <v>44.59142576717965</v>
       </c>
     </row>
     <row r="17">
@@ -692,11 +692,11 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>01/07/2019</t>
+          <t>01/10/2019</t>
         </is>
       </c>
       <c r="D17">
-        <v>45.18213641869914</v>
+        <v>45.46666222385126</v>
       </c>
     </row>
     <row r="18">
@@ -712,11 +712,11 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>01/07/2021</t>
+          <t>01/10/2021</t>
         </is>
       </c>
       <c r="D18">
-        <v>43.69008683884065</v>
+        <v>44.91200255173838</v>
       </c>
     </row>
     <row r="19">
@@ -732,11 +732,11 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
+          <t>01/10/2023</t>
         </is>
       </c>
       <c r="D19">
-        <v>46.2712092210579</v>
+        <v>46.72570712048232</v>
       </c>
     </row>
     <row r="20">
@@ -752,11 +752,11 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>01/07/2013</t>
+          <t>01/10/2013</t>
         </is>
       </c>
       <c r="D20">
-        <v>3.464131512777616</v>
+        <v>3.074362485880224</v>
       </c>
     </row>
     <row r="21">
@@ -772,11 +772,11 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>01/07/2015</t>
+          <t>01/10/2015</t>
         </is>
       </c>
       <c r="D21">
-        <v>4.507579115326656</v>
+        <v>4.532096205069736</v>
       </c>
     </row>
     <row r="22">
@@ -792,11 +792,11 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>01/07/2017</t>
+          <t>01/10/2017</t>
         </is>
       </c>
       <c r="D22">
-        <v>6.330935251798561</v>
+        <v>6.020915829018175</v>
       </c>
     </row>
     <row r="23">
@@ -812,11 +812,11 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>01/07/2019</t>
+          <t>01/10/2019</t>
         </is>
       </c>
       <c r="D23">
-        <v>6.103644636061007</v>
+        <v>5.666017698272538</v>
       </c>
     </row>
     <row r="24">
@@ -832,11 +832,11 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>01/07/2021</t>
+          <t>01/10/2021</t>
         </is>
       </c>
       <c r="D24">
-        <v>6.321660839818052</v>
+        <v>5.633994408690921</v>
       </c>
     </row>
     <row r="25">
@@ -852,11 +852,11 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
+          <t>01/10/2023</t>
         </is>
       </c>
       <c r="D25">
-        <v>3.854157493963396</v>
+        <v>3.73953720797879</v>
       </c>
     </row>
     <row r="26">
@@ -872,11 +872,11 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>01/07/2013</t>
+          <t>01/10/2013</t>
         </is>
       </c>
       <c r="D26">
-        <v>29.38651413001012</v>
+        <v>29.61104391375191</v>
       </c>
     </row>
     <row r="27">
@@ -892,11 +892,11 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>01/07/2015</t>
+          <t>01/10/2015</t>
         </is>
       </c>
       <c r="D27">
-        <v>29.46842773985758</v>
+        <v>29.53185048308941</v>
       </c>
     </row>
     <row r="28">
@@ -912,11 +912,11 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>01/07/2017</t>
+          <t>01/10/2017</t>
         </is>
       </c>
       <c r="D28">
-        <v>29.39321270256522</v>
+        <v>29.3851442495975</v>
       </c>
     </row>
     <row r="29">
@@ -932,11 +932,11 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>01/07/2019</t>
+          <t>01/10/2019</t>
         </is>
       </c>
       <c r="D29">
-        <v>29.10653478190368</v>
+        <v>29.3125853853587</v>
       </c>
     </row>
     <row r="30">
@@ -952,11 +952,11 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>01/07/2021</t>
+          <t>01/10/2021</t>
         </is>
       </c>
       <c r="D30">
-        <v>30.75824217134694</v>
+        <v>30.26671294819596</v>
       </c>
     </row>
     <row r="31">
@@ -972,11 +972,11 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
+          <t>01/10/2023</t>
         </is>
       </c>
       <c r="D31">
-        <v>30.97276228524288</v>
+        <v>30.67049781837195</v>
       </c>
     </row>
     <row r="32">
@@ -992,11 +992,11 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>01/07/2013</t>
+          <t>01/10/2013</t>
         </is>
       </c>
       <c r="D32">
-        <v>76.36017064536625</v>
+        <v>76.49234115834315</v>
       </c>
     </row>
     <row r="33">
@@ -1012,11 +1012,11 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>01/07/2015</t>
+          <t>01/10/2015</t>
         </is>
       </c>
       <c r="D33">
-        <v>77.37200078962009</v>
+        <v>77.44565704352813</v>
       </c>
     </row>
     <row r="34">
@@ -1032,11 +1032,11 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>01/07/2017</t>
+          <t>01/10/2017</t>
         </is>
       </c>
       <c r="D34">
-        <v>78.28903005997799</v>
+        <v>78.28675727880065</v>
       </c>
     </row>
     <row r="35">
@@ -1052,11 +1052,11 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>01/07/2019</t>
+          <t>01/10/2019</t>
         </is>
       </c>
       <c r="D35">
-        <v>78.78771920585602</v>
+        <v>78.96286946460502</v>
       </c>
     </row>
     <row r="36">
@@ -1072,7 +1072,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>01/07/2021</t>
+          <t>01/10/2021</t>
         </is>
       </c>
     </row>
@@ -1089,11 +1089,11 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
+          <t>01/10/2023</t>
         </is>
       </c>
       <c r="D37">
-        <v>79.96041648739352</v>
+        <v>79.95564800330061</v>
       </c>
     </row>
     <row r="38">
@@ -1109,11 +1109,11 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>01/07/2013</t>
+          <t>01/10/2013</t>
         </is>
       </c>
       <c r="D38">
-        <v>43.53635290914042</v>
+        <v>44.18381219976435</v>
       </c>
     </row>
     <row r="39">
@@ -1129,11 +1129,11 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>01/07/2015</t>
+          <t>01/10/2015</t>
         </is>
       </c>
       <c r="D39">
-        <v>45.38161979792904</v>
+        <v>44.71981793093561</v>
       </c>
     </row>
     <row r="40">
@@ -1149,11 +1149,11 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>01/07/2017</t>
+          <t>01/10/2017</t>
         </is>
       </c>
       <c r="D40">
-        <v>43.8141037016006</v>
+        <v>43.98291719090571</v>
       </c>
     </row>
     <row r="41">
@@ -1169,11 +1169,11 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>01/07/2019</t>
+          <t>01/10/2019</t>
         </is>
       </c>
       <c r="D41">
-        <v>44.27124475573578</v>
+        <v>44.20076434907612</v>
       </c>
     </row>
     <row r="42">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>01/07/2021</t>
+          <t>01/10/2021</t>
         </is>
       </c>
     </row>
@@ -1206,11 +1206,11 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
+          <t>01/10/2023</t>
         </is>
       </c>
       <c r="D43">
-        <v>43.46097581963686</v>
+        <v>43.34118375135377</v>
       </c>
     </row>
     <row r="44">
@@ -1226,11 +1226,11 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>01/07/2013</t>
+          <t>01/10/2013</t>
         </is>
       </c>
       <c r="D44">
-        <v>39.58972497050014</v>
+        <v>40.66527689658298</v>
       </c>
     </row>
     <row r="45">
@@ -1246,11 +1246,11 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>01/07/2015</t>
+          <t>01/10/2015</t>
         </is>
       </c>
       <c r="D45">
-        <v>40.41598621754034</v>
+        <v>39.98351343117753</v>
       </c>
     </row>
     <row r="46">
@@ -1266,11 +1266,11 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>01/07/2017</t>
+          <t>01/10/2017</t>
         </is>
       </c>
       <c r="D46">
-        <v>37.25733754480605</v>
+        <v>37.83735889847779</v>
       </c>
     </row>
     <row r="47">
@@ -1286,11 +1286,11 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>01/07/2019</t>
+          <t>01/10/2019</t>
         </is>
       </c>
       <c r="D47">
-        <v>37.80434286516755</v>
+        <v>38.11928053013569</v>
       </c>
     </row>
     <row r="48">
@@ -1306,7 +1306,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>01/07/2021</t>
+          <t>01/10/2021</t>
         </is>
       </c>
     </row>
@@ -1323,11 +1323,11 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
+          <t>01/10/2023</t>
         </is>
       </c>
       <c r="D49">
-        <v>38.74537475260305</v>
+        <v>38.81831152980007</v>
       </c>
     </row>
     <row r="50">
@@ -1343,11 +1343,11 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>01/07/2013</t>
+          <t>01/10/2013</t>
         </is>
       </c>
       <c r="D50">
-        <v>3.946627938640283</v>
+        <v>3.518535303181365</v>
       </c>
     </row>
     <row r="51">
@@ -1363,11 +1363,11 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>01/07/2015</t>
+          <t>01/10/2015</t>
         </is>
       </c>
       <c r="D51">
-        <v>4.965633580388708</v>
+        <v>4.736304499758077</v>
       </c>
     </row>
     <row r="52">
@@ -1383,11 +1383,11 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>01/07/2017</t>
+          <t>01/10/2017</t>
         </is>
       </c>
       <c r="D52">
-        <v>6.556766156794549</v>
+        <v>6.145558292427921</v>
       </c>
     </row>
     <row r="53">
@@ -1403,11 +1403,11 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>01/07/2019</t>
+          <t>01/10/2019</t>
         </is>
       </c>
       <c r="D53">
-        <v>6.466901890568224</v>
+        <v>6.079730724729147</v>
       </c>
     </row>
     <row r="54">
@@ -1423,7 +1423,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>01/07/2021</t>
+          <t>01/10/2021</t>
         </is>
       </c>
     </row>
@@ -1440,11 +1440,11 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
+          <t>01/10/2023</t>
         </is>
       </c>
       <c r="D55">
-        <v>4.715601067033818</v>
+        <v>4.522872221553695</v>
       </c>
     </row>
     <row r="56">
@@ -1460,11 +1460,11 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>01/07/2013</t>
+          <t>01/10/2013</t>
         </is>
       </c>
       <c r="D56">
-        <v>32.82381773622583</v>
+        <v>32.30671621499139</v>
       </c>
     </row>
     <row r="57">
@@ -1480,11 +1480,11 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>01/07/2015</t>
+          <t>01/10/2015</t>
         </is>
       </c>
       <c r="D57">
-        <v>31.99038099169104</v>
+        <v>32.72583911259252</v>
       </c>
     </row>
     <row r="58">
@@ -1500,11 +1500,11 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>01/07/2017</t>
+          <t>01/10/2017</t>
         </is>
       </c>
       <c r="D58">
-        <v>34.47670085530752</v>
+        <v>34.30384008789495</v>
       </c>
     </row>
     <row r="59">
@@ -1520,11 +1520,11 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>01/07/2019</t>
+          <t>01/10/2019</t>
         </is>
       </c>
       <c r="D59">
-        <v>34.51822985237067</v>
+        <v>34.76210511552891</v>
       </c>
     </row>
     <row r="60">
@@ -1540,7 +1540,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>01/07/2021</t>
+          <t>01/10/2021</t>
         </is>
       </c>
     </row>
@@ -1557,11 +1557,11 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
+          <t>01/10/2023</t>
         </is>
       </c>
       <c r="D61">
-        <v>36.50116169004389</v>
+        <v>36.61446425194685</v>
       </c>
     </row>
     <row r="62">
@@ -1577,11 +1577,11 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>01/07/2013</t>
+          <t>01/10/2013</t>
         </is>
       </c>
       <c r="D62">
-        <v>76.5625</v>
+        <v>76.29527739569005</v>
       </c>
     </row>
     <row r="63">
@@ -1597,11 +1597,11 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>01/07/2015</t>
+          <t>01/10/2015</t>
         </is>
       </c>
       <c r="D63">
-        <v>77.99819657348964</v>
+        <v>78.50719424460432</v>
       </c>
     </row>
     <row r="64">
@@ -1617,11 +1617,11 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>01/07/2017</t>
+          <t>01/10/2017</t>
         </is>
       </c>
       <c r="D64">
-        <v>78.09734513274337</v>
+        <v>78.02294792586054</v>
       </c>
     </row>
     <row r="65">
@@ -1637,11 +1637,11 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>01/07/2019</t>
+          <t>01/10/2019</t>
         </is>
       </c>
       <c r="D65">
-        <v>79.05258583224685</v>
+        <v>78.75108412836079</v>
       </c>
     </row>
     <row r="66">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>01/07/2021</t>
+          <t>01/10/2021</t>
         </is>
       </c>
     </row>
@@ -1674,11 +1674,11 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
+          <t>01/10/2023</t>
         </is>
       </c>
       <c r="D67">
-        <v>78.88982338099242</v>
+        <v>78.59840537138061</v>
       </c>
     </row>
     <row r="68">
@@ -1694,11 +1694,11 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>01/07/2013</t>
+          <t>01/10/2013</t>
         </is>
       </c>
       <c r="D68">
-        <v>46.64522058823529</v>
+        <v>45.89637780834479</v>
       </c>
     </row>
     <row r="69">
@@ -1714,11 +1714,11 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>01/07/2015</t>
+          <t>01/10/2015</t>
         </is>
       </c>
       <c r="D69">
-        <v>46.25788999098287</v>
+        <v>45.45863309352518</v>
       </c>
     </row>
     <row r="70">
@@ -1734,11 +1734,11 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>01/07/2017</t>
+          <t>01/10/2017</t>
         </is>
       </c>
       <c r="D70">
-        <v>44.7787610619469</v>
+        <v>46.07237422771404</v>
       </c>
     </row>
     <row r="71">
@@ -1754,11 +1754,11 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>01/07/2019</t>
+          <t>01/10/2019</t>
         </is>
       </c>
       <c r="D71">
-        <v>47.63146458061712</v>
+        <v>48.78577623590633</v>
       </c>
     </row>
     <row r="72">
@@ -1774,7 +1774,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>01/07/2021</t>
+          <t>01/10/2021</t>
         </is>
       </c>
     </row>
@@ -1791,11 +1791,11 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
+          <t>01/10/2023</t>
         </is>
       </c>
       <c r="D73">
-        <v>45.50042052144659</v>
+        <v>44.94334872010072</v>
       </c>
     </row>
     <row r="74">
@@ -1811,11 +1811,11 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>01/07/2013</t>
+          <t>01/10/2013</t>
         </is>
       </c>
       <c r="D74">
-        <v>41.91176470588236</v>
+        <v>41.86153140761119</v>
       </c>
     </row>
     <row r="75">
@@ -1831,11 +1831,11 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>01/07/2015</t>
+          <t>01/10/2015</t>
         </is>
       </c>
       <c r="D75">
-        <v>42.20018034265104</v>
+        <v>40.87230215827338</v>
       </c>
     </row>
     <row r="76">
@@ -1851,11 +1851,11 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>01/07/2017</t>
+          <t>01/10/2017</t>
         </is>
       </c>
       <c r="D76">
-        <v>38.58407079646018</v>
+        <v>39.84995586937335</v>
       </c>
     </row>
     <row r="77">
@@ -1871,11 +1871,11 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>01/07/2019</t>
+          <t>01/10/2019</t>
         </is>
       </c>
       <c r="D77">
-        <v>40.59104737070839</v>
+        <v>41.50043365134432</v>
       </c>
     </row>
     <row r="78">
@@ -1891,7 +1891,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>01/07/2021</t>
+          <t>01/10/2021</t>
         </is>
       </c>
     </row>
@@ -1908,11 +1908,11 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
+          <t>01/10/2023</t>
         </is>
       </c>
       <c r="D79">
-        <v>41.04289318755256</v>
+        <v>39.86571548468317</v>
       </c>
     </row>
     <row r="80">
@@ -1928,11 +1928,11 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>01/07/2013</t>
+          <t>01/10/2013</t>
         </is>
       </c>
       <c r="D80">
-        <v>4.733455882352941</v>
+        <v>4.034846400733608</v>
       </c>
     </row>
     <row r="81">
@@ -1948,11 +1948,11 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>01/07/2015</t>
+          <t>01/10/2015</t>
         </is>
       </c>
       <c r="D81">
-        <v>4.05770964833183</v>
+        <v>4.631294964028776</v>
       </c>
     </row>
     <row r="82">
@@ -1968,11 +1968,11 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>01/07/2017</t>
+          <t>01/10/2017</t>
         </is>
       </c>
       <c r="D82">
-        <v>6.194690265486726</v>
+        <v>6.266548984995588</v>
       </c>
     </row>
     <row r="83">
@@ -1988,11 +1988,11 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>01/07/2019</t>
+          <t>01/10/2019</t>
         </is>
       </c>
       <c r="D83">
-        <v>7.040417209908735</v>
+        <v>7.285342584562011</v>
       </c>
     </row>
     <row r="84">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>01/07/2021</t>
+          <t>01/10/2021</t>
         </is>
       </c>
     </row>
@@ -2025,11 +2025,11 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
+          <t>01/10/2023</t>
         </is>
       </c>
       <c r="D85">
-        <v>4.457527333894029</v>
+        <v>5.035669324381032</v>
       </c>
     </row>
     <row r="86">
@@ -2045,11 +2045,11 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>01/07/2013</t>
+          <t>01/10/2013</t>
         </is>
       </c>
       <c r="D86">
-        <v>29.87132352941176</v>
+        <v>30.39889958734526</v>
       </c>
     </row>
     <row r="87">
@@ -2065,11 +2065,11 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>01/07/2015</t>
+          <t>01/10/2015</t>
         </is>
       </c>
       <c r="D87">
-        <v>31.74030658250676</v>
+        <v>33.04856115107913</v>
       </c>
     </row>
     <row r="88">
@@ -2085,11 +2085,11 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>01/07/2017</t>
+          <t>01/10/2017</t>
         </is>
       </c>
       <c r="D88">
-        <v>33.31858407079646</v>
+        <v>31.95057369814651</v>
       </c>
     </row>
     <row r="89">
@@ -2105,11 +2105,11 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>01/07/2019</t>
+          <t>01/10/2019</t>
         </is>
       </c>
       <c r="D89">
-        <v>31.42112125162972</v>
+        <v>29.96530789245447</v>
       </c>
     </row>
     <row r="90">
@@ -2125,7 +2125,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>01/07/2021</t>
+          <t>01/10/2021</t>
         </is>
       </c>
     </row>
@@ -2142,11 +2142,11 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
+          <t>01/10/2023</t>
         </is>
       </c>
       <c r="D91">
-        <v>33.38940285954584</v>
+        <v>33.6550566512799</v>
       </c>
     </row>
   </sheetData>

--- a/Data/t13.1.xlsx
+++ b/Data/t13.1.xlsx
@@ -392,11 +392,11 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>01/10/2013</t>
+          <t>01/01/2014</t>
         </is>
       </c>
       <c r="D2">
-        <v>78.75336125633515</v>
+        <v>78.8555725129924</v>
       </c>
     </row>
     <row r="3">
@@ -412,11 +412,11 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>01/10/2015</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="D3">
-        <v>79.45616811315006</v>
+        <v>79.53056340238544</v>
       </c>
     </row>
     <row r="4">
@@ -432,11 +432,11 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D4">
-        <v>79.99796933698853</v>
+        <v>80.05606998615139</v>
       </c>
     </row>
     <row r="5">
@@ -452,11 +452,11 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="D5">
-        <v>80.4452653074825</v>
+        <v>80.49782871043453</v>
       </c>
     </row>
     <row r="6">
@@ -472,11 +472,11 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="D6">
-        <v>80.81270990862525</v>
+        <v>80.8546304186996</v>
       </c>
     </row>
     <row r="7">
@@ -492,11 +492,11 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="D7">
-        <v>81.13527944735173</v>
+        <v>81.17250873076</v>
       </c>
     </row>
     <row r="8">
@@ -512,11 +512,11 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>01/10/2013</t>
+          <t>01/01/2014</t>
         </is>
       </c>
       <c r="D8">
-        <v>49.14231734258324</v>
+        <v>49.17507057286212</v>
       </c>
     </row>
     <row r="9">
@@ -532,11 +532,11 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>01/10/2015</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="D9">
-        <v>49.92480907402129</v>
+        <v>50.01863622096673</v>
       </c>
     </row>
     <row r="10">
@@ -552,11 +552,11 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D10">
-        <v>50.61282508739103</v>
+        <v>50.54550016647285</v>
       </c>
     </row>
     <row r="11">
@@ -572,11 +572,11 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="D11">
-        <v>51.13267992212379</v>
+        <v>50.48747113657745</v>
       </c>
     </row>
     <row r="12">
@@ -592,11 +592,11 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="D12">
-        <v>50.54599696042929</v>
+        <v>50.20649354297969</v>
       </c>
     </row>
     <row r="13">
@@ -612,11 +612,11 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="D13">
-        <v>50.46478162897979</v>
+        <v>50.2716236441915</v>
       </c>
     </row>
     <row r="14">
@@ -632,11 +632,11 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>01/10/2013</t>
+          <t>01/01/2014</t>
         </is>
       </c>
       <c r="D14">
-        <v>46.06795485670302</v>
+        <v>45.61351008967491</v>
       </c>
     </row>
     <row r="15">
@@ -652,11 +652,11 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>01/10/2015</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="D15">
-        <v>45.39271286895155</v>
+        <v>44.48564030131827</v>
       </c>
     </row>
     <row r="16">
@@ -672,11 +672,11 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D16">
-        <v>44.59142576717965</v>
+        <v>43.85184398839998</v>
       </c>
     </row>
     <row r="17">
@@ -692,11 +692,11 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="D17">
-        <v>45.46666222385126</v>
+        <v>44.24061879377025</v>
       </c>
     </row>
     <row r="18">
@@ -712,11 +712,11 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="D18">
-        <v>44.91200255173838</v>
+        <v>44.61150183081576</v>
       </c>
     </row>
     <row r="19">
@@ -732,11 +732,11 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="D19">
-        <v>46.72570712048232</v>
+        <v>46.28827214102256</v>
       </c>
     </row>
     <row r="20">
@@ -752,11 +752,11 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>01/10/2013</t>
+          <t>01/01/2014</t>
         </is>
       </c>
       <c r="D20">
-        <v>3.074362485880224</v>
+        <v>3.561560483187201</v>
       </c>
     </row>
     <row r="21">
@@ -772,11 +772,11 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>01/10/2015</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="D21">
-        <v>4.532096205069736</v>
+        <v>5.532505492780917</v>
       </c>
     </row>
     <row r="22">
@@ -792,11 +792,11 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D22">
-        <v>6.020915829018175</v>
+        <v>6.693656178072873</v>
       </c>
     </row>
     <row r="23">
@@ -812,11 +812,11 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="D23">
-        <v>5.666017698272538</v>
+        <v>6.246852342807188</v>
       </c>
     </row>
     <row r="24">
@@ -832,11 +832,11 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="D24">
-        <v>5.633994408690921</v>
+        <v>5.594991712163921</v>
       </c>
     </row>
     <row r="25">
@@ -852,11 +852,11 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="D25">
-        <v>3.73953720797879</v>
+        <v>3.983351503168942</v>
       </c>
     </row>
     <row r="26">
@@ -872,11 +872,11 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>01/10/2013</t>
+          <t>01/01/2014</t>
         </is>
       </c>
       <c r="D26">
-        <v>29.61104391375191</v>
+        <v>29.68000319198811</v>
       </c>
     </row>
     <row r="27">
@@ -892,11 +892,11 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>01/10/2015</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="D27">
-        <v>29.53185048308941</v>
+        <v>29.51192718141871</v>
       </c>
     </row>
     <row r="28">
@@ -912,11 +912,11 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D28">
-        <v>29.3851442495975</v>
+        <v>29.51056981967854</v>
       </c>
     </row>
     <row r="29">
@@ -932,11 +932,11 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="D29">
-        <v>29.3125853853587</v>
+        <v>30.01035757385711</v>
       </c>
     </row>
     <row r="30">
@@ -952,11 +952,11 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="D30">
-        <v>30.26671294819596</v>
+        <v>30.64813687571992</v>
       </c>
     </row>
     <row r="31">
@@ -972,11 +972,11 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="D31">
-        <v>30.67049781837195</v>
+        <v>30.90088508656849</v>
       </c>
     </row>
     <row r="32">
@@ -992,11 +992,11 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>01/10/2013</t>
+          <t>01/01/2014</t>
         </is>
       </c>
       <c r="D32">
-        <v>76.49234115834315</v>
+        <v>76.59516698343741</v>
       </c>
     </row>
     <row r="33">
@@ -1012,11 +1012,11 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>01/10/2015</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="D33">
-        <v>77.44565704352813</v>
+        <v>77.53838445295445</v>
       </c>
     </row>
     <row r="34">
@@ -1032,11 +1032,11 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D34">
-        <v>78.28675727880065</v>
+        <v>78.38220460457627</v>
       </c>
     </row>
     <row r="35">
@@ -1052,11 +1052,11 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="D35">
-        <v>78.96286946460502</v>
+        <v>79.07241403459626</v>
       </c>
     </row>
     <row r="36">
@@ -1072,7 +1072,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/01/2022</t>
         </is>
       </c>
     </row>
@@ -1089,11 +1089,11 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="D37">
-        <v>79.95564800330061</v>
+        <v>79.92685062760788</v>
       </c>
     </row>
     <row r="38">
@@ -1109,11 +1109,11 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>01/10/2013</t>
+          <t>01/01/2014</t>
         </is>
       </c>
       <c r="D38">
-        <v>44.18381219976435</v>
+        <v>44.37686668476785</v>
       </c>
     </row>
     <row r="39">
@@ -1129,11 +1129,11 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>01/10/2015</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="D39">
-        <v>44.71981793093561</v>
+        <v>44.44543860277012</v>
       </c>
     </row>
     <row r="40">
@@ -1149,11 +1149,11 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D40">
-        <v>43.98291719090571</v>
+        <v>43.81602930506645</v>
       </c>
     </row>
     <row r="41">
@@ -1169,11 +1169,11 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="D41">
-        <v>44.20076434907612</v>
+        <v>43.72505077386371</v>
       </c>
     </row>
     <row r="42">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/01/2022</t>
         </is>
       </c>
     </row>
@@ -1206,11 +1206,11 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="D43">
-        <v>43.34118375135377</v>
+        <v>43.09459621889864</v>
       </c>
     </row>
     <row r="44">
@@ -1226,11 +1226,11 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>01/10/2013</t>
+          <t>01/01/2014</t>
         </is>
       </c>
       <c r="D44">
-        <v>40.66527689658298</v>
+        <v>40.19549280477872</v>
       </c>
     </row>
     <row r="45">
@@ -1246,11 +1246,11 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>01/10/2015</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="D45">
-        <v>39.98351343117753</v>
+        <v>38.68687591711106</v>
       </c>
     </row>
     <row r="46">
@@ -1266,11 +1266,11 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D46">
-        <v>37.83735889847779</v>
+        <v>36.787060468244</v>
       </c>
     </row>
     <row r="47">
@@ -1286,11 +1286,11 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="D47">
-        <v>38.11928053013569</v>
+        <v>36.82505777715527</v>
       </c>
     </row>
     <row r="48">
@@ -1306,7 +1306,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/01/2022</t>
         </is>
       </c>
     </row>
@@ -1323,11 +1323,11 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="D49">
-        <v>38.81831152980007</v>
+        <v>38.30726170647527</v>
       </c>
     </row>
     <row r="50">
@@ -1343,11 +1343,11 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>01/10/2013</t>
+          <t>01/01/2014</t>
         </is>
       </c>
       <c r="D50">
-        <v>3.518535303181365</v>
+        <v>4.181373879989139</v>
       </c>
     </row>
     <row r="51">
@@ -1363,11 +1363,11 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>01/10/2015</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="D51">
-        <v>4.736304499758077</v>
+        <v>5.758562685659068</v>
       </c>
     </row>
     <row r="52">
@@ -1383,11 +1383,11 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D52">
-        <v>6.145558292427921</v>
+        <v>7.030738466438974</v>
       </c>
     </row>
     <row r="53">
@@ -1403,11 +1403,11 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="D53">
-        <v>6.079730724729147</v>
+        <v>6.899992996708453</v>
       </c>
     </row>
     <row r="54">
@@ -1423,7 +1423,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/01/2022</t>
         </is>
       </c>
     </row>
@@ -1440,11 +1440,11 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="D55">
-        <v>4.522872221553695</v>
+        <v>4.787334512423373</v>
       </c>
     </row>
     <row r="56">
@@ -1460,11 +1460,11 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>01/10/2013</t>
+          <t>01/01/2014</t>
         </is>
       </c>
       <c r="D56">
-        <v>32.30671621499139</v>
+        <v>32.2164901801068</v>
       </c>
     </row>
     <row r="57">
@@ -1480,11 +1480,11 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>01/10/2015</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="D57">
-        <v>32.72583911259252</v>
+        <v>33.09294585018432</v>
       </c>
     </row>
     <row r="58">
@@ -1500,11 +1500,11 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D58">
-        <v>34.30384008789495</v>
+        <v>34.56617529950981</v>
       </c>
     </row>
     <row r="59">
@@ -1520,11 +1520,11 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="D59">
-        <v>34.76210511552891</v>
+        <v>35.34736326073254</v>
       </c>
     </row>
     <row r="60">
@@ -1540,7 +1540,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/01/2022</t>
         </is>
       </c>
     </row>
@@ -1557,11 +1557,11 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="D61">
-        <v>36.61446425194685</v>
+        <v>36.83225440870924</v>
       </c>
     </row>
     <row r="62">
@@ -1577,11 +1577,11 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>01/10/2013</t>
+          <t>01/01/2014</t>
         </is>
       </c>
       <c r="D62">
-        <v>76.29527739569005</v>
+        <v>76.16651418115279</v>
       </c>
     </row>
     <row r="63">
@@ -1597,11 +1597,11 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>01/10/2015</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="D63">
-        <v>78.50719424460432</v>
+        <v>78.82458501570211</v>
       </c>
     </row>
     <row r="64">
@@ -1617,11 +1617,11 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D64">
-        <v>78.02294792586054</v>
+        <v>77.71906649053281</v>
       </c>
     </row>
     <row r="65">
@@ -1637,11 +1637,11 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="D65">
-        <v>78.75108412836079</v>
+        <v>78.32107312851579</v>
       </c>
     </row>
     <row r="66">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/01/2022</t>
         </is>
       </c>
     </row>
@@ -1674,11 +1674,11 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="D67">
-        <v>78.59840537138061</v>
+        <v>80.10054461667366</v>
       </c>
     </row>
     <row r="68">
@@ -1694,11 +1694,11 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>01/10/2013</t>
+          <t>01/01/2014</t>
         </is>
       </c>
       <c r="D68">
-        <v>45.89637780834479</v>
+        <v>46.02012808783166</v>
       </c>
     </row>
     <row r="69">
@@ -1714,11 +1714,11 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>01/10/2015</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="D69">
-        <v>45.45863309352518</v>
+        <v>45.8950201884253</v>
       </c>
     </row>
     <row r="70">
@@ -1734,11 +1734,11 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D70">
-        <v>46.07237422771404</v>
+        <v>45.57463672391017</v>
       </c>
     </row>
     <row r="71">
@@ -1754,11 +1754,11 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="D71">
-        <v>48.78577623590633</v>
+        <v>46.8628299437473</v>
       </c>
     </row>
     <row r="72">
@@ -1774,7 +1774,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/01/2022</t>
         </is>
       </c>
     </row>
@@ -1791,11 +1791,11 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="D73">
-        <v>44.94334872010072</v>
+        <v>46.585672392124</v>
       </c>
     </row>
     <row r="74">
@@ -1811,11 +1811,11 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>01/10/2013</t>
+          <t>01/01/2014</t>
         </is>
       </c>
       <c r="D74">
-        <v>41.86153140761119</v>
+        <v>41.62854528819762</v>
       </c>
     </row>
     <row r="75">
@@ -1831,11 +1831,11 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>01/10/2015</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="D75">
-        <v>40.87230215827338</v>
+        <v>40.60116644235083</v>
       </c>
     </row>
     <row r="76">
@@ -1851,11 +1851,11 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D76">
-        <v>39.84995586937335</v>
+        <v>37.7366798767063</v>
       </c>
     </row>
     <row r="77">
@@ -1871,11 +1871,11 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="D77">
-        <v>41.50043365134432</v>
+        <v>39.46343574210299</v>
       </c>
     </row>
     <row r="78">
@@ -1891,7 +1891,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/01/2022</t>
         </is>
       </c>
     </row>
@@ -1908,11 +1908,11 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="D79">
-        <v>39.86571548468317</v>
+        <v>41.89359028068706</v>
       </c>
     </row>
     <row r="80">
@@ -1928,11 +1928,11 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>01/10/2013</t>
+          <t>01/01/2014</t>
         </is>
       </c>
       <c r="D80">
-        <v>4.034846400733608</v>
+        <v>4.391582799634035</v>
       </c>
     </row>
     <row r="81">
@@ -1948,11 +1948,11 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>01/10/2015</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="D81">
-        <v>4.631294964028776</v>
+        <v>5.293853746074473</v>
       </c>
     </row>
     <row r="82">
@@ -1968,11 +1968,11 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D82">
-        <v>6.266548984995588</v>
+        <v>7.837956847203875</v>
       </c>
     </row>
     <row r="83">
@@ -1988,11 +1988,11 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="D83">
-        <v>7.285342584562011</v>
+        <v>7.39939420164431</v>
       </c>
     </row>
     <row r="84">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/01/2022</t>
         </is>
       </c>
     </row>
@@ -2025,11 +2025,11 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="D85">
-        <v>5.035669324381032</v>
+        <v>4.650188521156263</v>
       </c>
     </row>
     <row r="86">
@@ -2045,11 +2045,11 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>01/10/2013</t>
+          <t>01/01/2014</t>
         </is>
       </c>
       <c r="D86">
-        <v>30.39889958734526</v>
+        <v>30.14638609332114</v>
       </c>
     </row>
     <row r="87">
@@ -2065,11 +2065,11 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>01/10/2015</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="D87">
-        <v>33.04856115107913</v>
+        <v>32.92956482727681</v>
       </c>
     </row>
     <row r="88">
@@ -2085,11 +2085,11 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D88">
-        <v>31.95057369814651</v>
+        <v>32.14442976662264</v>
       </c>
     </row>
     <row r="89">
@@ -2105,11 +2105,11 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="D89">
-        <v>29.96530789245447</v>
+        <v>31.4582431847685</v>
       </c>
     </row>
     <row r="90">
@@ -2125,7 +2125,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/01/2022</t>
         </is>
       </c>
     </row>
@@ -2142,11 +2142,11 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="D91">
-        <v>33.6550566512799</v>
+        <v>33.55676581483033</v>
       </c>
     </row>
   </sheetData>

--- a/Data/t13.1.xlsx
+++ b/Data/t13.1.xlsx
@@ -392,11 +392,11 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/04/2014</t>
         </is>
       </c>
       <c r="D2">
-        <v>78.8555725129924</v>
+        <v>78.95375978579499</v>
       </c>
     </row>
     <row r="3">
@@ -412,11 +412,11 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/04/2016</t>
         </is>
       </c>
       <c r="D3">
-        <v>79.53056340238544</v>
+        <v>79.60259390676619</v>
       </c>
     </row>
     <row r="4">
@@ -432,11 +432,11 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/04/2018</t>
         </is>
       </c>
       <c r="D4">
-        <v>80.05606998615139</v>
+        <v>80.11191801668176</v>
       </c>
     </row>
     <row r="5">
@@ -452,11 +452,11 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/04/2020</t>
         </is>
       </c>
       <c r="D5">
-        <v>80.49782871043453</v>
+        <v>80.54858703744979</v>
       </c>
     </row>
     <row r="6">
@@ -472,11 +472,11 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/04/2022</t>
         </is>
       </c>
       <c r="D6">
-        <v>80.8546304186996</v>
+        <v>80.89557819949519</v>
       </c>
     </row>
     <row r="7">
@@ -492,11 +492,11 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>01/01/2024</t>
+          <t>01/04/2024</t>
         </is>
       </c>
       <c r="D7">
-        <v>81.17250873076</v>
+        <v>81.20880894730773</v>
       </c>
     </row>
     <row r="8">
@@ -512,11 +512,11 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/04/2014</t>
         </is>
       </c>
       <c r="D8">
-        <v>49.17507057286212</v>
+        <v>49.26068412225214</v>
       </c>
     </row>
     <row r="9">
@@ -532,11 +532,11 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/04/2016</t>
         </is>
       </c>
       <c r="D9">
-        <v>50.01863622096673</v>
+        <v>50.11085280802643</v>
       </c>
     </row>
     <row r="10">
@@ -552,11 +552,11 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/04/2018</t>
         </is>
       </c>
       <c r="D10">
-        <v>50.54550016647285</v>
+        <v>50.37755475507099</v>
       </c>
     </row>
     <row r="11">
@@ -572,11 +572,11 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/04/2020</t>
         </is>
       </c>
       <c r="D11">
-        <v>50.48747113657745</v>
+        <v>46.13243293229446</v>
       </c>
     </row>
     <row r="12">
@@ -592,11 +592,11 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/04/2022</t>
         </is>
       </c>
       <c r="D12">
-        <v>50.20649354297969</v>
+        <v>50.644573244835</v>
       </c>
     </row>
     <row r="13">
@@ -612,11 +612,11 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>01/01/2024</t>
+          <t>01/04/2024</t>
         </is>
       </c>
       <c r="D13">
-        <v>50.2716236441915</v>
+        <v>50.4425227718206</v>
       </c>
     </row>
     <row r="14">
@@ -632,11 +632,11 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/04/2014</t>
         </is>
       </c>
       <c r="D14">
-        <v>45.61351008967491</v>
+        <v>45.84604512041567</v>
       </c>
     </row>
     <row r="15">
@@ -652,11 +652,11 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/04/2016</t>
         </is>
       </c>
       <c r="D15">
-        <v>44.48564030131827</v>
+        <v>44.37685060565276</v>
       </c>
     </row>
     <row r="16">
@@ -672,11 +672,11 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/04/2018</t>
         </is>
       </c>
       <c r="D16">
-        <v>43.85184398839998</v>
+        <v>44.04580740854892</v>
       </c>
     </row>
     <row r="17">
@@ -692,11 +692,11 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/04/2020</t>
         </is>
       </c>
       <c r="D17">
-        <v>44.24061879377025</v>
+        <v>39.8593439528807</v>
       </c>
     </row>
     <row r="18">
@@ -712,11 +712,11 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/04/2022</t>
         </is>
       </c>
       <c r="D18">
-        <v>44.61150183081576</v>
+        <v>45.93297186126951</v>
       </c>
     </row>
     <row r="19">
@@ -732,11 +732,11 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>01/01/2024</t>
+          <t>01/04/2024</t>
         </is>
       </c>
       <c r="D19">
-        <v>46.28827214102256</v>
+        <v>46.96414158883893</v>
       </c>
     </row>
     <row r="20">
@@ -752,11 +752,11 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/04/2014</t>
         </is>
       </c>
       <c r="D20">
-        <v>3.561560483187201</v>
+        <v>3.41463900183647</v>
       </c>
     </row>
     <row r="21">
@@ -772,11 +772,11 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/04/2016</t>
         </is>
       </c>
       <c r="D21">
-        <v>5.532505492780917</v>
+        <v>5.734002202373669</v>
       </c>
     </row>
     <row r="22">
@@ -792,11 +792,11 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/04/2018</t>
         </is>
       </c>
       <c r="D22">
-        <v>6.693656178072873</v>
+        <v>6.331747346522065</v>
       </c>
     </row>
     <row r="23">
@@ -812,11 +812,11 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/04/2020</t>
         </is>
       </c>
       <c r="D23">
-        <v>6.246852342807188</v>
+        <v>6.273088979413759</v>
       </c>
     </row>
     <row r="24">
@@ -832,11 +832,11 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/04/2022</t>
         </is>
       </c>
       <c r="D24">
-        <v>5.594991712163921</v>
+        <v>4.711601383565486</v>
       </c>
     </row>
     <row r="25">
@@ -852,11 +852,11 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>01/01/2024</t>
+          <t>01/04/2024</t>
         </is>
       </c>
       <c r="D25">
-        <v>3.983351503168942</v>
+        <v>3.477919981551943</v>
       </c>
     </row>
     <row r="26">
@@ -872,11 +872,11 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/04/2014</t>
         </is>
       </c>
       <c r="D26">
-        <v>29.68000319198811</v>
+        <v>29.69307566354285</v>
       </c>
     </row>
     <row r="27">
@@ -892,11 +892,11 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/04/2016</t>
         </is>
       </c>
       <c r="D27">
-        <v>29.51192718141871</v>
+        <v>29.49174109873976</v>
       </c>
     </row>
     <row r="28">
@@ -912,11 +912,11 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/04/2018</t>
         </is>
       </c>
       <c r="D28">
-        <v>29.51056981967854</v>
+        <v>29.73436326161077</v>
       </c>
     </row>
     <row r="29">
@@ -932,11 +932,11 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/04/2020</t>
         </is>
       </c>
       <c r="D29">
-        <v>30.01035757385711</v>
+        <v>34.41615410515534</v>
       </c>
     </row>
     <row r="30">
@@ -952,11 +952,11 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/04/2022</t>
         </is>
       </c>
       <c r="D30">
-        <v>30.64813687571992</v>
+        <v>30.25100495466019</v>
       </c>
     </row>
     <row r="31">
@@ -972,11 +972,11 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>01/01/2024</t>
+          <t>01/04/2024</t>
         </is>
       </c>
       <c r="D31">
-        <v>30.90088508656849</v>
+        <v>30.76628617548715</v>
       </c>
     </row>
     <row r="32">
@@ -992,11 +992,11 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/04/2014</t>
         </is>
       </c>
       <c r="D32">
-        <v>76.59516698343741</v>
+        <v>76.65793041120651</v>
       </c>
     </row>
     <row r="33">
@@ -1012,11 +1012,11 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/04/2016</t>
         </is>
       </c>
       <c r="D33">
-        <v>77.53838445295445</v>
+        <v>77.56115866406962</v>
       </c>
     </row>
     <row r="34">
@@ -1032,11 +1032,11 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/04/2018</t>
         </is>
       </c>
       <c r="D34">
-        <v>78.38220460457627</v>
+        <v>78.57243841232814</v>
       </c>
     </row>
     <row r="35">
@@ -1052,11 +1052,8 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
-        </is>
-      </c>
-      <c r="D35">
-        <v>79.07241403459626</v>
+          <t>01/04/2020</t>
+        </is>
       </c>
     </row>
     <row r="36">
@@ -1072,8 +1069,11 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
-        </is>
+          <t>01/04/2022</t>
+        </is>
+      </c>
+      <c r="D36">
+        <v>79.58106119622609</v>
       </c>
     </row>
     <row r="37">
@@ -1089,11 +1089,11 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>01/01/2024</t>
+          <t>01/04/2024</t>
         </is>
       </c>
       <c r="D37">
-        <v>79.92685062760788</v>
+        <v>80.10154199756437</v>
       </c>
     </row>
     <row r="38">
@@ -1109,11 +1109,11 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/04/2014</t>
         </is>
       </c>
       <c r="D38">
-        <v>44.37686668476785</v>
+        <v>44.43922277451423</v>
       </c>
     </row>
     <row r="39">
@@ -1129,11 +1129,11 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/04/2016</t>
         </is>
       </c>
       <c r="D39">
-        <v>44.44543860277012</v>
+        <v>44.33980808062758</v>
       </c>
     </row>
     <row r="40">
@@ -1149,11 +1149,11 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/04/2018</t>
         </is>
       </c>
       <c r="D40">
-        <v>43.81602930506645</v>
+        <v>43.36938465344785</v>
       </c>
     </row>
     <row r="41">
@@ -1169,11 +1169,8 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
-        </is>
-      </c>
-      <c r="D41">
-        <v>43.72505077386371</v>
+          <t>01/04/2020</t>
+        </is>
       </c>
     </row>
     <row r="42">
@@ -1189,8 +1186,11 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
-        </is>
+          <t>01/04/2022</t>
+        </is>
+      </c>
+      <c r="D42">
+        <v>43.73755734441271</v>
       </c>
     </row>
     <row r="43">
@@ -1206,11 +1206,11 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>01/01/2024</t>
+          <t>01/04/2024</t>
         </is>
       </c>
       <c r="D43">
-        <v>43.09459621889864</v>
+        <v>43.2565479151301</v>
       </c>
     </row>
     <row r="44">
@@ -1226,11 +1226,11 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/04/2014</t>
         </is>
       </c>
       <c r="D44">
-        <v>40.19549280477872</v>
+        <v>40.50248531405332</v>
       </c>
     </row>
     <row r="45">
@@ -1246,11 +1246,11 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/04/2016</t>
         </is>
       </c>
       <c r="D45">
-        <v>38.68687591711106</v>
+        <v>38.39817015421455</v>
       </c>
     </row>
     <row r="46">
@@ -1266,11 +1266,11 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/04/2018</t>
         </is>
       </c>
       <c r="D46">
-        <v>36.787060468244</v>
+        <v>36.85187148764712</v>
       </c>
     </row>
     <row r="47">
@@ -1286,11 +1286,8 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
-        </is>
-      </c>
-      <c r="D47">
-        <v>36.82505777715527</v>
+          <t>01/04/2020</t>
+        </is>
       </c>
     </row>
     <row r="48">
@@ -1306,8 +1303,11 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
-        </is>
+          <t>01/04/2022</t>
+        </is>
+      </c>
+      <c r="D48">
+        <v>38.18402146628581</v>
       </c>
     </row>
     <row r="49">
@@ -1323,11 +1323,11 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>01/01/2024</t>
+          <t>01/04/2024</t>
         </is>
       </c>
       <c r="D49">
-        <v>38.30726170647527</v>
+        <v>39.17771564810209</v>
       </c>
     </row>
     <row r="50">
@@ -1343,11 +1343,11 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/04/2014</t>
         </is>
       </c>
       <c r="D50">
-        <v>4.181373879989139</v>
+        <v>3.936737460460913</v>
       </c>
     </row>
     <row r="51">
@@ -1363,11 +1363,11 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/04/2016</t>
         </is>
       </c>
       <c r="D51">
-        <v>5.758562685659068</v>
+        <v>5.941637926413038</v>
       </c>
     </row>
     <row r="52">
@@ -1383,11 +1383,11 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/04/2018</t>
         </is>
       </c>
       <c r="D52">
-        <v>7.030738466438974</v>
+        <v>6.517513165800729</v>
       </c>
     </row>
     <row r="53">
@@ -1403,11 +1403,8 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
-        </is>
-      </c>
-      <c r="D53">
-        <v>6.899992996708453</v>
+          <t>01/04/2020</t>
+        </is>
       </c>
     </row>
     <row r="54">
@@ -1423,8 +1420,11 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
-        </is>
+          <t>01/04/2022</t>
+        </is>
+      </c>
+      <c r="D54">
+        <v>5.553535878126893</v>
       </c>
     </row>
     <row r="55">
@@ -1440,11 +1440,11 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>01/01/2024</t>
+          <t>01/04/2024</t>
         </is>
       </c>
       <c r="D55">
-        <v>4.787334512423373</v>
+        <v>4.077117030582666</v>
       </c>
     </row>
     <row r="56">
@@ -1460,11 +1460,11 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/04/2014</t>
         </is>
       </c>
       <c r="D56">
-        <v>32.2164901801068</v>
+        <v>32.21870763669227</v>
       </c>
     </row>
     <row r="57">
@@ -1480,11 +1480,11 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/04/2016</t>
         </is>
       </c>
       <c r="D57">
-        <v>33.09294585018432</v>
+        <v>33.22135058344204</v>
       </c>
     </row>
     <row r="58">
@@ -1500,11 +1500,11 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/04/2018</t>
         </is>
       </c>
       <c r="D58">
-        <v>34.56617529950981</v>
+        <v>35.20482098045454</v>
       </c>
     </row>
     <row r="59">
@@ -1520,11 +1520,8 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
-        </is>
-      </c>
-      <c r="D59">
-        <v>35.34736326073254</v>
+          <t>01/04/2020</t>
+        </is>
       </c>
     </row>
     <row r="60">
@@ -1540,8 +1537,11 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
-        </is>
+          <t>01/04/2022</t>
+        </is>
+      </c>
+      <c r="D60">
+        <v>35.84350385181338</v>
       </c>
     </row>
     <row r="61">
@@ -1557,11 +1557,11 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>01/01/2024</t>
+          <t>01/04/2024</t>
         </is>
       </c>
       <c r="D61">
-        <v>36.83225440870924</v>
+        <v>36.8467093188796</v>
       </c>
     </row>
     <row r="62">
@@ -1577,11 +1577,11 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/04/2014</t>
         </is>
       </c>
       <c r="D62">
-        <v>76.16651418115279</v>
+        <v>76.41423357664233</v>
       </c>
     </row>
     <row r="63">
@@ -1597,11 +1597,11 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/04/2016</t>
         </is>
       </c>
       <c r="D63">
-        <v>78.82458501570211</v>
+        <v>78.33482542524619</v>
       </c>
     </row>
     <row r="64">
@@ -1617,11 +1617,11 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/04/2018</t>
         </is>
       </c>
       <c r="D64">
-        <v>77.71906649053281</v>
+        <v>77.68014059753953</v>
       </c>
     </row>
     <row r="65">
@@ -1637,11 +1637,8 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
-        </is>
-      </c>
-      <c r="D65">
-        <v>78.32107312851579</v>
+          <t>01/04/2020</t>
+        </is>
       </c>
     </row>
     <row r="66">
@@ -1657,8 +1654,11 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
-        </is>
+          <t>01/04/2022</t>
+        </is>
+      </c>
+      <c r="D66">
+        <v>79.32059447983015</v>
       </c>
     </row>
     <row r="67">
@@ -1674,11 +1674,11 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>01/01/2024</t>
+          <t>01/04/2024</t>
         </is>
       </c>
       <c r="D67">
-        <v>80.10054461667366</v>
+        <v>79.68227424749163</v>
       </c>
     </row>
     <row r="68">
@@ -1694,11 +1694,11 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/04/2014</t>
         </is>
       </c>
       <c r="D68">
-        <v>46.02012808783166</v>
+        <v>45.57481751824817</v>
       </c>
     </row>
     <row r="69">
@@ -1714,11 +1714,11 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/04/2016</t>
         </is>
       </c>
       <c r="D69">
-        <v>45.8950201884253</v>
+        <v>46.06087735004476</v>
       </c>
     </row>
     <row r="70">
@@ -1734,11 +1734,11 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/04/2018</t>
         </is>
       </c>
       <c r="D70">
-        <v>45.57463672391017</v>
+        <v>44.99121265377855</v>
       </c>
     </row>
     <row r="71">
@@ -1754,11 +1754,8 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
-        </is>
-      </c>
-      <c r="D71">
-        <v>46.8628299437473</v>
+          <t>01/04/2020</t>
+        </is>
       </c>
     </row>
     <row r="72">
@@ -1774,8 +1771,11 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
-        </is>
+          <t>01/04/2022</t>
+        </is>
+      </c>
+      <c r="D72">
+        <v>46.62420382165605</v>
       </c>
     </row>
     <row r="73">
@@ -1791,11 +1791,11 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>01/01/2024</t>
+          <t>01/04/2024</t>
         </is>
       </c>
       <c r="D73">
-        <v>46.585672392124</v>
+        <v>46.69732441471572</v>
       </c>
     </row>
     <row r="74">
@@ -1811,11 +1811,11 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/04/2014</t>
         </is>
       </c>
       <c r="D74">
-        <v>41.62854528819762</v>
+        <v>41.14963503649635</v>
       </c>
     </row>
     <row r="75">
@@ -1831,11 +1831,11 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/04/2016</t>
         </is>
       </c>
       <c r="D75">
-        <v>40.60116644235083</v>
+        <v>40.10743061772605</v>
       </c>
     </row>
     <row r="76">
@@ -1851,11 +1851,11 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/04/2018</t>
         </is>
       </c>
       <c r="D76">
-        <v>37.7366798767063</v>
+        <v>37.34622144112478</v>
       </c>
     </row>
     <row r="77">
@@ -1871,11 +1871,8 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
-        </is>
-      </c>
-      <c r="D77">
-        <v>39.46343574210299</v>
+          <t>01/04/2020</t>
+        </is>
       </c>
     </row>
     <row r="78">
@@ -1891,8 +1888,11 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
-        </is>
+          <t>01/04/2022</t>
+        </is>
+      </c>
+      <c r="D78">
+        <v>40.67940552016985</v>
       </c>
     </row>
     <row r="79">
@@ -1908,11 +1908,11 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>01/01/2024</t>
+          <t>01/04/2024</t>
         </is>
       </c>
       <c r="D79">
-        <v>41.89359028068706</v>
+        <v>42.47491638795987</v>
       </c>
     </row>
     <row r="80">
@@ -1928,11 +1928,11 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/04/2014</t>
         </is>
       </c>
       <c r="D80">
-        <v>4.391582799634035</v>
+        <v>4.47080291970803</v>
       </c>
     </row>
     <row r="81">
@@ -1948,11 +1948,11 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/04/2016</t>
         </is>
       </c>
       <c r="D81">
-        <v>5.293853746074473</v>
+        <v>5.953446732318711</v>
       </c>
     </row>
     <row r="82">
@@ -1968,11 +1968,11 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/04/2018</t>
         </is>
       </c>
       <c r="D82">
-        <v>7.837956847203875</v>
+        <v>7.644991212653779</v>
       </c>
     </row>
     <row r="83">
@@ -1988,11 +1988,8 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
-        </is>
-      </c>
-      <c r="D83">
-        <v>7.39939420164431</v>
+          <t>01/04/2020</t>
+        </is>
       </c>
     </row>
     <row r="84">
@@ -2008,8 +2005,11 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
-        </is>
+          <t>01/04/2022</t>
+        </is>
+      </c>
+      <c r="D84">
+        <v>5.9447983014862</v>
       </c>
     </row>
     <row r="85">
@@ -2025,11 +2025,11 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>01/01/2024</t>
+          <t>01/04/2024</t>
         </is>
       </c>
       <c r="D85">
-        <v>4.650188521156263</v>
+        <v>4.264214046822742</v>
       </c>
     </row>
     <row r="86">
@@ -2045,11 +2045,11 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/04/2014</t>
         </is>
       </c>
       <c r="D86">
-        <v>30.14638609332114</v>
+        <v>30.83941605839416</v>
       </c>
     </row>
     <row r="87">
@@ -2065,11 +2065,11 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/04/2016</t>
         </is>
       </c>
       <c r="D87">
-        <v>32.92956482727681</v>
+        <v>32.22918531781558</v>
       </c>
     </row>
     <row r="88">
@@ -2085,11 +2085,11 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/04/2018</t>
         </is>
       </c>
       <c r="D88">
-        <v>32.14442976662264</v>
+        <v>32.68892794376098</v>
       </c>
     </row>
     <row r="89">
@@ -2105,11 +2105,8 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
-        </is>
-      </c>
-      <c r="D89">
-        <v>31.4582431847685</v>
+          <t>01/04/2020</t>
+        </is>
       </c>
     </row>
     <row r="90">
@@ -2125,8 +2122,11 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
-        </is>
+          <t>01/04/2022</t>
+        </is>
+      </c>
+      <c r="D90">
+        <v>32.6963906581741</v>
       </c>
     </row>
     <row r="91">
@@ -2142,11 +2142,11 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>01/01/2024</t>
+          <t>01/04/2024</t>
         </is>
       </c>
       <c r="D91">
-        <v>33.55676581483033</v>
+        <v>32.98494983277592</v>
       </c>
     </row>
   </sheetData>

--- a/Data/t13.1.xlsx
+++ b/Data/t13.1.xlsx
@@ -392,11 +392,11 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>01/04/2014</t>
+          <t>01/07/2014</t>
         </is>
       </c>
       <c r="D2">
-        <v>78.95375978579499</v>
+        <v>79.04766161593587</v>
       </c>
     </row>
     <row r="3">
@@ -412,11 +412,11 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>01/04/2016</t>
+          <t>01/07/2016</t>
         </is>
       </c>
       <c r="D3">
-        <v>79.60259390676619</v>
+        <v>79.67335137194378</v>
       </c>
     </row>
     <row r="4">
@@ -432,11 +432,11 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>01/04/2018</t>
+          <t>01/07/2018</t>
         </is>
       </c>
       <c r="D4">
-        <v>80.11191801668176</v>
+        <v>80.16927727925945</v>
       </c>
     </row>
     <row r="5">
@@ -452,11 +452,11 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>01/04/2020</t>
+          <t>01/07/2020</t>
         </is>
       </c>
       <c r="D5">
-        <v>80.54858703744979</v>
+        <v>80.596605163257</v>
       </c>
     </row>
     <row r="6">
@@ -472,11 +472,11 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>01/04/2022</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="D6">
-        <v>80.89557819949519</v>
+        <v>80.9366717682631</v>
       </c>
     </row>
     <row r="7">
@@ -492,11 +492,11 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>01/04/2024</t>
+          <t>01/07/2024</t>
         </is>
       </c>
       <c r="D7">
-        <v>81.20880894730773</v>
+        <v>81.2474962126619</v>
       </c>
     </row>
     <row r="8">
@@ -512,11 +512,11 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>01/04/2014</t>
+          <t>01/07/2014</t>
         </is>
       </c>
       <c r="D8">
-        <v>49.26068412225214</v>
+        <v>49.27516798522028</v>
       </c>
     </row>
     <row r="9">
@@ -532,11 +532,11 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>01/04/2016</t>
+          <t>01/07/2016</t>
         </is>
       </c>
       <c r="D9">
-        <v>50.11085280802643</v>
+        <v>49.80707803815459</v>
       </c>
     </row>
     <row r="10">
@@ -552,11 +552,11 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>01/04/2018</t>
+          <t>01/07/2018</t>
         </is>
       </c>
       <c r="D10">
-        <v>50.37755475507099</v>
+        <v>50.76588115985216</v>
       </c>
     </row>
     <row r="11">
@@ -572,11 +572,11 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>01/04/2020</t>
+          <t>01/07/2020</t>
         </is>
       </c>
       <c r="D11">
-        <v>46.13243293229446</v>
+        <v>46.40541129024624</v>
       </c>
     </row>
     <row r="12">
@@ -592,11 +592,11 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>01/04/2022</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="D12">
-        <v>50.644573244835</v>
+        <v>50.73397663219978</v>
       </c>
     </row>
     <row r="13">
@@ -612,11 +612,11 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>01/04/2024</t>
+          <t>01/07/2024</t>
         </is>
       </c>
       <c r="D13">
-        <v>50.4425227718206</v>
+        <v>50.66514405698735</v>
       </c>
     </row>
     <row r="14">
@@ -632,11 +632,11 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>01/04/2014</t>
+          <t>01/07/2014</t>
         </is>
       </c>
       <c r="D14">
-        <v>45.84604512041567</v>
+        <v>45.89212195255193</v>
       </c>
     </row>
     <row r="15">
@@ -652,11 +652,11 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>01/04/2016</t>
+          <t>01/07/2016</t>
         </is>
       </c>
       <c r="D15">
-        <v>44.37685060565276</v>
+        <v>43.86947730358591</v>
       </c>
     </row>
     <row r="16">
@@ -672,11 +672,11 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>01/04/2018</t>
+          <t>01/07/2018</t>
         </is>
       </c>
       <c r="D16">
-        <v>44.04580740854892</v>
+        <v>44.66478580800823</v>
       </c>
     </row>
     <row r="17">
@@ -692,11 +692,11 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>01/04/2020</t>
+          <t>01/07/2020</t>
         </is>
       </c>
       <c r="D17">
-        <v>39.8593439528807</v>
+        <v>39.49550794747753</v>
       </c>
     </row>
     <row r="18">
@@ -712,11 +712,11 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>01/04/2022</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="D18">
-        <v>45.93297186126951</v>
+        <v>46.31985143155773</v>
       </c>
     </row>
     <row r="19">
@@ -732,11 +732,11 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>01/04/2024</t>
+          <t>01/07/2024</t>
         </is>
       </c>
       <c r="D19">
-        <v>46.96414158883893</v>
+        <v>47.44141713212169</v>
       </c>
     </row>
     <row r="20">
@@ -752,11 +752,11 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>01/04/2014</t>
+          <t>01/07/2014</t>
         </is>
       </c>
       <c r="D20">
-        <v>3.41463900183647</v>
+        <v>3.383046032668345</v>
       </c>
     </row>
     <row r="21">
@@ -772,11 +772,11 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>01/04/2016</t>
+          <t>01/07/2016</t>
         </is>
       </c>
       <c r="D21">
-        <v>5.734002202373669</v>
+        <v>5.937112324538696</v>
       </c>
     </row>
     <row r="22">
@@ -792,11 +792,11 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>01/04/2018</t>
+          <t>01/07/2018</t>
         </is>
       </c>
       <c r="D22">
-        <v>6.331747346522065</v>
+        <v>6.101095351843931</v>
       </c>
     </row>
     <row r="23">
@@ -812,11 +812,11 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>01/04/2020</t>
+          <t>01/07/2020</t>
         </is>
       </c>
       <c r="D23">
-        <v>6.273088979413759</v>
+        <v>6.909903342768694</v>
       </c>
     </row>
     <row r="24">
@@ -832,11 +832,11 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>01/04/2022</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="D24">
-        <v>4.711601383565486</v>
+        <v>4.414125200642054</v>
       </c>
     </row>
     <row r="25">
@@ -852,11 +852,11 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>01/04/2024</t>
+          <t>01/07/2024</t>
         </is>
       </c>
       <c r="D25">
-        <v>3.477919981551943</v>
+        <v>3.223726924865659</v>
       </c>
     </row>
     <row r="26">
@@ -872,11 +872,11 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>01/04/2014</t>
+          <t>01/07/2014</t>
         </is>
       </c>
       <c r="D26">
-        <v>29.69307566354285</v>
+        <v>29.7724936307156</v>
       </c>
     </row>
     <row r="27">
@@ -892,11 +892,11 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>01/04/2016</t>
+          <t>01/07/2016</t>
         </is>
       </c>
       <c r="D27">
-        <v>29.49174109873976</v>
+        <v>29.86676174381917</v>
       </c>
     </row>
     <row r="28">
@@ -912,11 +912,11 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>01/04/2018</t>
+          <t>01/07/2018</t>
         </is>
       </c>
       <c r="D28">
-        <v>29.73436326161077</v>
+        <v>29.40339611940729</v>
       </c>
     </row>
     <row r="29">
@@ -932,11 +932,11 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>01/04/2020</t>
+          <t>01/07/2020</t>
         </is>
       </c>
       <c r="D29">
-        <v>34.41615410515534</v>
+        <v>34.19166721890355</v>
       </c>
     </row>
     <row r="30">
@@ -952,11 +952,11 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>01/04/2022</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="D30">
-        <v>30.25100495466019</v>
+        <v>30.20316174549255</v>
       </c>
     </row>
     <row r="31">
@@ -972,11 +972,11 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>01/04/2024</t>
+          <t>01/07/2024</t>
         </is>
       </c>
       <c r="D31">
-        <v>30.76628617548715</v>
+        <v>30.58235215567456</v>
       </c>
     </row>
     <row r="32">
@@ -992,11 +992,11 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>01/04/2014</t>
+          <t>01/07/2014</t>
         </is>
       </c>
       <c r="D32">
-        <v>76.65793041120651</v>
+        <v>76.77104954426495</v>
       </c>
     </row>
     <row r="33">
@@ -1012,11 +1012,11 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>01/04/2016</t>
+          <t>01/07/2016</t>
         </is>
       </c>
       <c r="D33">
-        <v>77.56115866406962</v>
+        <v>77.96395431834404</v>
       </c>
     </row>
     <row r="34">
@@ -1032,11 +1032,11 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>01/04/2018</t>
+          <t>01/07/2018</t>
         </is>
       </c>
       <c r="D34">
-        <v>78.57243841232814</v>
+        <v>78.62626405237985</v>
       </c>
     </row>
     <row r="35">
@@ -1052,7 +1052,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>01/04/2020</t>
+          <t>01/07/2020</t>
         </is>
       </c>
     </row>
@@ -1069,11 +1069,11 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>01/04/2022</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="D36">
-        <v>79.58106119622609</v>
+        <v>79.771414738735</v>
       </c>
     </row>
     <row r="37">
@@ -1089,11 +1089,11 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>01/04/2024</t>
+          <t>01/07/2024</t>
         </is>
       </c>
       <c r="D37">
-        <v>80.10154199756437</v>
+        <v>80.25357662982952</v>
       </c>
     </row>
     <row r="38">
@@ -1109,11 +1109,11 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>01/04/2014</t>
+          <t>01/07/2014</t>
         </is>
       </c>
       <c r="D38">
-        <v>44.43922277451423</v>
+        <v>44.51764281202058</v>
       </c>
     </row>
     <row r="39">
@@ -1129,11 +1129,11 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>01/04/2016</t>
+          <t>01/07/2016</t>
         </is>
       </c>
       <c r="D39">
-        <v>44.33980808062758</v>
+        <v>43.76695217701641</v>
       </c>
     </row>
     <row r="40">
@@ -1149,11 +1149,11 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>01/04/2018</t>
+          <t>01/07/2018</t>
         </is>
       </c>
       <c r="D40">
-        <v>43.36938465344785</v>
+        <v>44.13991493567231</v>
       </c>
     </row>
     <row r="41">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>01/04/2020</t>
+          <t>01/07/2020</t>
         </is>
       </c>
     </row>
@@ -1186,11 +1186,11 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>01/04/2022</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="D42">
-        <v>43.73755734441271</v>
+        <v>43.96375834284331</v>
       </c>
     </row>
     <row r="43">
@@ -1206,11 +1206,11 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>01/04/2024</t>
+          <t>01/07/2024</t>
         </is>
       </c>
       <c r="D43">
-        <v>43.2565479151301</v>
+        <v>43.92015762871584</v>
       </c>
     </row>
     <row r="44">
@@ -1226,11 +1226,11 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>01/04/2014</t>
+          <t>01/07/2014</t>
         </is>
       </c>
       <c r="D44">
-        <v>40.50248531405332</v>
+        <v>40.65517552567458</v>
       </c>
     </row>
     <row r="45">
@@ -1246,11 +1246,11 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>01/04/2016</t>
+          <t>01/07/2016</t>
         </is>
       </c>
       <c r="D45">
-        <v>38.39817015421455</v>
+        <v>37.52498215560314</v>
       </c>
     </row>
     <row r="46">
@@ -1266,11 +1266,11 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>01/04/2018</t>
+          <t>01/07/2018</t>
         </is>
       </c>
       <c r="D46">
-        <v>36.85187148764712</v>
+        <v>37.70185129626034</v>
       </c>
     </row>
     <row r="47">
@@ -1286,7 +1286,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>01/04/2020</t>
+          <t>01/07/2020</t>
         </is>
       </c>
     </row>
@@ -1303,11 +1303,11 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>01/04/2022</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="D48">
-        <v>38.18402146628581</v>
+        <v>38.70041843898053</v>
       </c>
     </row>
     <row r="49">
@@ -1323,11 +1323,11 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>01/04/2024</t>
+          <t>01/07/2024</t>
         </is>
       </c>
       <c r="D49">
-        <v>39.17771564810209</v>
+        <v>40.11136811445215</v>
       </c>
     </row>
     <row r="50">
@@ -1343,11 +1343,11 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>01/04/2014</t>
+          <t>01/07/2014</t>
         </is>
       </c>
       <c r="D50">
-        <v>3.936737460460913</v>
+        <v>3.862467286345998</v>
       </c>
     </row>
     <row r="51">
@@ -1363,11 +1363,11 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>01/04/2016</t>
+          <t>01/07/2016</t>
         </is>
       </c>
       <c r="D51">
-        <v>5.941637926413038</v>
+        <v>6.241970021413276</v>
       </c>
     </row>
     <row r="52">
@@ -1383,11 +1383,11 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>01/04/2018</t>
+          <t>01/07/2018</t>
         </is>
       </c>
       <c r="D52">
-        <v>6.517513165800729</v>
+        <v>6.436298819335369</v>
       </c>
     </row>
     <row r="53">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>01/04/2020</t>
+          <t>01/07/2020</t>
         </is>
       </c>
     </row>
@@ -1420,11 +1420,11 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>01/04/2022</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="D54">
-        <v>5.553535878126893</v>
+        <v>5.26333990386278</v>
       </c>
     </row>
     <row r="55">
@@ -1440,11 +1440,11 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>01/04/2024</t>
+          <t>01/07/2024</t>
         </is>
       </c>
       <c r="D55">
-        <v>4.077117030582666</v>
+        <v>3.808789514263686</v>
       </c>
     </row>
     <row r="56">
@@ -1460,11 +1460,11 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>01/04/2014</t>
+          <t>01/07/2014</t>
         </is>
       </c>
       <c r="D56">
-        <v>32.21870763669227</v>
+        <v>32.25340673224439</v>
       </c>
     </row>
     <row r="57">
@@ -1480,11 +1480,11 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>01/04/2016</t>
+          <t>01/07/2016</t>
         </is>
       </c>
       <c r="D57">
-        <v>33.22135058344204</v>
+        <v>34.19700214132762</v>
       </c>
     </row>
     <row r="58">
@@ -1500,11 +1500,11 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>01/04/2018</t>
+          <t>01/07/2018</t>
         </is>
       </c>
       <c r="D58">
-        <v>35.20482098045454</v>
+        <v>34.48811393678415</v>
       </c>
     </row>
     <row r="59">
@@ -1520,7 +1520,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>01/04/2020</t>
+          <t>01/07/2020</t>
         </is>
       </c>
     </row>
@@ -1537,11 +1537,11 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>01/04/2022</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="D60">
-        <v>35.84350385181338</v>
+        <v>35.80765639589169</v>
       </c>
     </row>
     <row r="61">
@@ -1557,11 +1557,11 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>01/04/2024</t>
+          <t>01/07/2024</t>
         </is>
       </c>
       <c r="D61">
-        <v>36.8467093188796</v>
+        <v>36.33341900111368</v>
       </c>
     </row>
     <row r="62">
@@ -1577,11 +1577,11 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>01/04/2014</t>
+          <t>01/07/2014</t>
         </is>
       </c>
       <c r="D62">
-        <v>76.41423357664233</v>
+        <v>76.55894401456531</v>
       </c>
     </row>
     <row r="63">
@@ -1597,11 +1597,11 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>01/04/2016</t>
+          <t>01/07/2016</t>
         </is>
       </c>
       <c r="D63">
-        <v>78.33482542524619</v>
+        <v>78.83928571428571</v>
       </c>
     </row>
     <row r="64">
@@ -1617,11 +1617,11 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>01/04/2018</t>
+          <t>01/07/2018</t>
         </is>
       </c>
       <c r="D64">
-        <v>77.68014059753953</v>
+        <v>77.77290661990355</v>
       </c>
     </row>
     <row r="65">
@@ -1637,7 +1637,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>01/04/2020</t>
+          <t>01/07/2020</t>
         </is>
       </c>
     </row>
@@ -1654,11 +1654,11 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>01/04/2022</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="D66">
-        <v>79.32059447983015</v>
+        <v>79.11016949152543</v>
       </c>
     </row>
     <row r="67">
@@ -1674,11 +1674,11 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>01/04/2024</t>
+          <t>01/07/2024</t>
         </is>
       </c>
       <c r="D67">
-        <v>79.68227424749163</v>
+        <v>79.96661101836395</v>
       </c>
     </row>
     <row r="68">
@@ -1694,11 +1694,11 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>01/04/2014</t>
+          <t>01/07/2014</t>
         </is>
       </c>
       <c r="D68">
-        <v>45.57481751824817</v>
+        <v>46.15384615384615</v>
       </c>
     </row>
     <row r="69">
@@ -1714,11 +1714,11 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>01/04/2016</t>
+          <t>01/07/2016</t>
         </is>
       </c>
       <c r="D69">
-        <v>46.06087735004476</v>
+        <v>45.80357142857142</v>
       </c>
     </row>
     <row r="70">
@@ -1734,11 +1734,11 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>01/04/2018</t>
+          <t>01/07/2018</t>
         </is>
       </c>
       <c r="D70">
-        <v>44.99121265377855</v>
+        <v>45.46251644015783</v>
       </c>
     </row>
     <row r="71">
@@ -1754,7 +1754,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>01/04/2020</t>
+          <t>01/07/2020</t>
         </is>
       </c>
     </row>
@@ -1771,11 +1771,11 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>01/04/2022</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="D72">
-        <v>46.62420382165605</v>
+        <v>45.76271186440678</v>
       </c>
     </row>
     <row r="73">
@@ -1791,11 +1791,11 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>01/04/2024</t>
+          <t>01/07/2024</t>
         </is>
       </c>
       <c r="D73">
-        <v>46.69732441471572</v>
+        <v>46.78631051752922</v>
       </c>
     </row>
     <row r="74">
@@ -1811,11 +1811,11 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>01/04/2014</t>
+          <t>01/07/2014</t>
         </is>
       </c>
       <c r="D74">
-        <v>41.14963503649635</v>
+        <v>41.92080109239873</v>
       </c>
     </row>
     <row r="75">
@@ -1831,11 +1831,11 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>01/04/2016</t>
+          <t>01/07/2016</t>
         </is>
       </c>
       <c r="D75">
-        <v>40.10743061772605</v>
+        <v>39.15178571428572</v>
       </c>
     </row>
     <row r="76">
@@ -1851,11 +1851,11 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>01/04/2018</t>
+          <t>01/07/2018</t>
         </is>
       </c>
       <c r="D76">
-        <v>37.34622144112478</v>
+        <v>37.48355984217449</v>
       </c>
     </row>
     <row r="77">
@@ -1871,7 +1871,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>01/04/2020</t>
+          <t>01/07/2020</t>
         </is>
       </c>
     </row>
@@ -1888,11 +1888,11 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>01/04/2022</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="D78">
-        <v>40.67940552016985</v>
+        <v>40.21186440677966</v>
       </c>
     </row>
     <row r="79">
@@ -1908,11 +1908,11 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>01/04/2024</t>
+          <t>01/07/2024</t>
         </is>
       </c>
       <c r="D79">
-        <v>42.47491638795987</v>
+        <v>42.86310517529216</v>
       </c>
     </row>
     <row r="80">
@@ -1928,11 +1928,11 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>01/04/2014</t>
+          <t>01/07/2014</t>
         </is>
       </c>
       <c r="D80">
-        <v>4.47080291970803</v>
+        <v>4.233045061447428</v>
       </c>
     </row>
     <row r="81">
@@ -1948,11 +1948,11 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>01/04/2016</t>
+          <t>01/07/2016</t>
         </is>
       </c>
       <c r="D81">
-        <v>5.953446732318711</v>
+        <v>6.607142857142858</v>
       </c>
     </row>
     <row r="82">
@@ -1968,11 +1968,11 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>01/04/2018</t>
+          <t>01/07/2018</t>
         </is>
       </c>
       <c r="D82">
-        <v>7.644991212653779</v>
+        <v>8.022797018851382</v>
       </c>
     </row>
     <row r="83">
@@ -1988,7 +1988,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>01/04/2020</t>
+          <t>01/07/2020</t>
         </is>
       </c>
     </row>
@@ -2005,11 +2005,11 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>01/04/2022</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="D84">
-        <v>5.9447983014862</v>
+        <v>5.550847457627119</v>
       </c>
     </row>
     <row r="85">
@@ -2025,11 +2025,11 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>01/04/2024</t>
+          <t>01/07/2024</t>
         </is>
       </c>
       <c r="D85">
-        <v>4.264214046822742</v>
+        <v>3.923205342237062</v>
       </c>
     </row>
     <row r="86">
@@ -2045,11 +2045,11 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>01/04/2014</t>
+          <t>01/07/2014</t>
         </is>
       </c>
       <c r="D86">
-        <v>30.83941605839416</v>
+        <v>30.40509786071916</v>
       </c>
     </row>
     <row r="87">
@@ -2065,11 +2065,11 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>01/04/2016</t>
+          <t>01/07/2016</t>
         </is>
       </c>
       <c r="D87">
-        <v>32.22918531781558</v>
+        <v>33.03571428571428</v>
       </c>
     </row>
     <row r="88">
@@ -2085,11 +2085,11 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>01/04/2018</t>
+          <t>01/07/2018</t>
         </is>
       </c>
       <c r="D88">
-        <v>32.68892794376098</v>
+        <v>32.26654975887768</v>
       </c>
     </row>
     <row r="89">
@@ -2105,7 +2105,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>01/04/2020</t>
+          <t>01/07/2020</t>
         </is>
       </c>
     </row>
@@ -2122,11 +2122,11 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>01/04/2022</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="D90">
-        <v>32.6963906581741</v>
+        <v>33.34745762711864</v>
       </c>
     </row>
     <row r="91">
@@ -2142,11 +2142,11 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>01/04/2024</t>
+          <t>01/07/2024</t>
         </is>
       </c>
       <c r="D91">
-        <v>32.98494983277592</v>
+        <v>33.13856427378965</v>
       </c>
     </row>
   </sheetData>

--- a/Data/t13.1.xlsx
+++ b/Data/t13.1.xlsx
@@ -1,46 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -48,21 +45,94 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -350,14 +420,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D91"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
+    <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Região</t>
@@ -387,16 +463,16 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Taxa de pessoas de 14 anos ou mais de idade</t>
+          <t>Pessoas de 14 anos ou mais de idade</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>01/07/2014</t>
-        </is>
-      </c>
-      <c r="D2">
-        <v>79.04766161593587</v>
+          <t>01/07/2012</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>78.18785334283159</v>
       </c>
     </row>
     <row r="3">
@@ -407,16 +483,16 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Taxa de pessoas de 14 anos ou mais de idade</t>
+          <t>Pessoas de 14 anos ou mais de idade</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>01/07/2016</t>
-        </is>
-      </c>
-      <c r="D3">
-        <v>79.67335137194378</v>
+          <t>01/07/2014</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>79.04766161593587</v>
       </c>
     </row>
     <row r="4">
@@ -427,16 +503,16 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Taxa de pessoas de 14 anos ou mais de idade</t>
+          <t>Pessoas de 14 anos ou mais de idade</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>01/07/2018</t>
-        </is>
-      </c>
-      <c r="D4">
-        <v>80.16927727925945</v>
+          <t>01/07/2016</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>79.67335137194378</v>
       </c>
     </row>
     <row r="5">
@@ -447,16 +523,16 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Taxa de pessoas de 14 anos ou mais de idade</t>
+          <t>Pessoas de 14 anos ou mais de idade</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>01/07/2020</t>
-        </is>
-      </c>
-      <c r="D5">
-        <v>80.596605163257</v>
+          <t>01/07/2018</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>80.16927727925945</v>
       </c>
     </row>
     <row r="6">
@@ -467,16 +543,16 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Taxa de pessoas de 14 anos ou mais de idade</t>
+          <t>Pessoas de 14 anos ou mais de idade</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>01/07/2022</t>
-        </is>
-      </c>
-      <c r="D6">
-        <v>80.9366717682631</v>
+          <t>01/07/2020</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>80.596605163257</v>
       </c>
     </row>
     <row r="7">
@@ -487,16 +563,16 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Taxa de pessoas de 14 anos ou mais de idade</t>
+          <t>Pessoas de 14 anos ou mais de idade</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>01/07/2024</t>
-        </is>
-      </c>
-      <c r="D7">
-        <v>81.2474962126619</v>
+          <t>01/07/2022</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>80.9366717682631</v>
       </c>
     </row>
     <row r="8">
@@ -507,16 +583,16 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Taxa de pessoas de 14 anos ou mais de idade, na força de trabalho, na semana de referência</t>
+          <t>Pessoas de 14 anos ou mais de idade</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>01/07/2014</t>
-        </is>
-      </c>
-      <c r="D8">
-        <v>49.27516798522028</v>
+          <t>01/07/2024</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>81.2474962126619</v>
       </c>
     </row>
     <row r="9">
@@ -527,16 +603,16 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Taxa de pessoas de 14 anos ou mais de idade, na força de trabalho, na semana de referência</t>
+          <t>Pessoas de 14 anos ou mais de idade ocupadas na semana de referência</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>01/07/2016</t>
-        </is>
-      </c>
-      <c r="D9">
-        <v>49.80707803815459</v>
+          <t>01/07/2012</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>45.6320636989658</v>
       </c>
     </row>
     <row r="10">
@@ -547,16 +623,16 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Taxa de pessoas de 14 anos ou mais de idade, na força de trabalho, na semana de referência</t>
+          <t>Pessoas de 14 anos ou mais de idade ocupadas na semana de referência</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>01/07/2018</t>
-        </is>
-      </c>
-      <c r="D10">
-        <v>50.76588115985216</v>
+          <t>01/07/2014</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>45.89212195255193</v>
       </c>
     </row>
     <row r="11">
@@ -567,16 +643,16 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Taxa de pessoas de 14 anos ou mais de idade, na força de trabalho, na semana de referência</t>
+          <t>Pessoas de 14 anos ou mais de idade ocupadas na semana de referência</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>01/07/2020</t>
-        </is>
-      </c>
-      <c r="D11">
-        <v>46.40541129024624</v>
+          <t>01/07/2016</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>43.86947730358591</v>
       </c>
     </row>
     <row r="12">
@@ -587,16 +663,16 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Taxa de pessoas de 14 anos ou mais de idade, na força de trabalho, na semana de referência</t>
+          <t>Pessoas de 14 anos ou mais de idade ocupadas na semana de referência</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>01/07/2022</t>
-        </is>
-      </c>
-      <c r="D12">
-        <v>50.73397663219978</v>
+          <t>01/07/2018</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>44.66478580800823</v>
       </c>
     </row>
     <row r="13">
@@ -607,16 +683,16 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Taxa de pessoas de 14 anos ou mais de idade, na força de trabalho, na semana de referência</t>
+          <t>Pessoas de 14 anos ou mais de idade ocupadas na semana de referência</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>01/07/2024</t>
-        </is>
-      </c>
-      <c r="D13">
-        <v>50.66514405698735</v>
+          <t>01/07/2020</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>39.49550794747753</v>
       </c>
     </row>
     <row r="14">
@@ -627,16 +703,16 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Taxa de pessoas de 14 anos ou mais de idade ocupadas na semana de referência</t>
+          <t>Pessoas de 14 anos ou mais de idade ocupadas na semana de referência</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>01/07/2014</t>
-        </is>
-      </c>
-      <c r="D14">
-        <v>45.89212195255193</v>
+          <t>01/07/2022</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>46.31985143155773</v>
       </c>
     </row>
     <row r="15">
@@ -647,16 +723,16 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Taxa de pessoas de 14 anos ou mais de idade ocupadas na semana de referência</t>
+          <t>Pessoas de 14 anos ou mais de idade ocupadas na semana de referência</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>01/07/2016</t>
-        </is>
-      </c>
-      <c r="D15">
-        <v>43.86947730358591</v>
+          <t>01/07/2024</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>47.44141713212169</v>
       </c>
     </row>
     <row r="16">
@@ -667,16 +743,16 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Taxa de pessoas de 14 anos ou mais de idade ocupadas na semana de referência</t>
+          <t>Pessoas de 14 anos ou mais de idade, desocupadas na semana de referência</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>01/07/2018</t>
-        </is>
-      </c>
-      <c r="D16">
-        <v>44.66478580800823</v>
+          <t>01/07/2012</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>3.507282840990042</v>
       </c>
     </row>
     <row r="17">
@@ -687,16 +763,16 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Taxa de pessoas de 14 anos ou mais de idade ocupadas na semana de referência</t>
+          <t>Pessoas de 14 anos ou mais de idade, desocupadas na semana de referência</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>01/07/2020</t>
-        </is>
-      </c>
-      <c r="D17">
-        <v>39.49550794747753</v>
+          <t>01/07/2014</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>3.383046032668345</v>
       </c>
     </row>
     <row r="18">
@@ -707,16 +783,16 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Taxa de pessoas de 14 anos ou mais de idade ocupadas na semana de referência</t>
+          <t>Pessoas de 14 anos ou mais de idade, desocupadas na semana de referência</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>01/07/2022</t>
-        </is>
-      </c>
-      <c r="D18">
-        <v>46.31985143155773</v>
+          <t>01/07/2016</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>5.937112324538696</v>
       </c>
     </row>
     <row r="19">
@@ -727,16 +803,16 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Taxa de pessoas de 14 anos ou mais de idade ocupadas na semana de referência</t>
+          <t>Pessoas de 14 anos ou mais de idade, desocupadas na semana de referência</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>01/07/2024</t>
-        </is>
-      </c>
-      <c r="D19">
-        <v>47.44141713212169</v>
+          <t>01/07/2018</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>6.101095351843931</v>
       </c>
     </row>
     <row r="20">
@@ -747,16 +823,16 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Taxa de pessoas de 14 anos ou mais de idade, desocupadas na semana de referência</t>
+          <t>Pessoas de 14 anos ou mais de idade, desocupadas na semana de referência</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>01/07/2014</t>
-        </is>
-      </c>
-      <c r="D20">
-        <v>3.383046032668345</v>
+          <t>01/07/2020</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>6.909903342768694</v>
       </c>
     </row>
     <row r="21">
@@ -767,16 +843,16 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Taxa de pessoas de 14 anos ou mais de idade, desocupadas na semana de referência</t>
+          <t>Pessoas de 14 anos ou mais de idade, desocupadas na semana de referência</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>01/07/2016</t>
-        </is>
-      </c>
-      <c r="D21">
-        <v>5.937112324538696</v>
+          <t>01/07/2022</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>4.414125200642054</v>
       </c>
     </row>
     <row r="22">
@@ -787,16 +863,16 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Taxa de pessoas de 14 anos ou mais de idade, desocupadas na semana de referência</t>
+          <t>Pessoas de 14 anos ou mais de idade, desocupadas na semana de referência</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>01/07/2018</t>
-        </is>
-      </c>
-      <c r="D22">
-        <v>6.101095351843931</v>
+          <t>01/07/2024</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>3.223726924865659</v>
       </c>
     </row>
     <row r="23">
@@ -807,16 +883,16 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Taxa de pessoas de 14 anos ou mais de idade, desocupadas na semana de referência</t>
+          <t>Pessoas de 14 anos ou mais de idade, fora da força de trabalho, na semana de referência</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>01/07/2020</t>
-        </is>
-      </c>
-      <c r="D23">
-        <v>6.909903342768694</v>
+          <t>01/07/2012</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>29.04850680287575</v>
       </c>
     </row>
     <row r="24">
@@ -827,16 +903,16 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Taxa de pessoas de 14 anos ou mais de idade, desocupadas na semana de referência</t>
+          <t>Pessoas de 14 anos ou mais de idade, fora da força de trabalho, na semana de referência</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>01/07/2022</t>
-        </is>
-      </c>
-      <c r="D24">
-        <v>4.414125200642054</v>
+          <t>01/07/2014</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>29.7724936307156</v>
       </c>
     </row>
     <row r="25">
@@ -847,16 +923,16 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Taxa de pessoas de 14 anos ou mais de idade, desocupadas na semana de referência</t>
+          <t>Pessoas de 14 anos ou mais de idade, fora da força de trabalho, na semana de referência</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>01/07/2024</t>
-        </is>
-      </c>
-      <c r="D25">
-        <v>3.223726924865659</v>
+          <t>01/07/2016</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>29.86676174381917</v>
       </c>
     </row>
     <row r="26">
@@ -867,16 +943,16 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Taxa de pessoas de 14 anos ou mais de idade, fora da força de trabalho, na semana de referência</t>
+          <t>Pessoas de 14 anos ou mais de idade, fora da força de trabalho, na semana de referência</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>01/07/2014</t>
-        </is>
-      </c>
-      <c r="D26">
-        <v>29.7724936307156</v>
+          <t>01/07/2018</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>29.40339611940729</v>
       </c>
     </row>
     <row r="27">
@@ -887,16 +963,16 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Taxa de pessoas de 14 anos ou mais de idade, fora da força de trabalho, na semana de referência</t>
+          <t>Pessoas de 14 anos ou mais de idade, fora da força de trabalho, na semana de referência</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>01/07/2016</t>
-        </is>
-      </c>
-      <c r="D27">
-        <v>29.86676174381917</v>
+          <t>01/07/2020</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>34.19166721890355</v>
       </c>
     </row>
     <row r="28">
@@ -907,16 +983,16 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Taxa de pessoas de 14 anos ou mais de idade, fora da força de trabalho, na semana de referência</t>
+          <t>Pessoas de 14 anos ou mais de idade, fora da força de trabalho, na semana de referência</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>01/07/2018</t>
-        </is>
-      </c>
-      <c r="D28">
-        <v>29.40339611940729</v>
+          <t>01/07/2022</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>30.20316174549255</v>
       </c>
     </row>
     <row r="29">
@@ -927,16 +1003,16 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Taxa de pessoas de 14 anos ou mais de idade, fora da força de trabalho, na semana de referência</t>
+          <t>Pessoas de 14 anos ou mais de idade, fora da força de trabalho, na semana de referência</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>01/07/2020</t>
-        </is>
-      </c>
-      <c r="D29">
-        <v>34.19166721890355</v>
+          <t>01/07/2024</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>30.58235215567456</v>
       </c>
     </row>
     <row r="30">
@@ -947,16 +1023,16 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Taxa de pessoas de 14 anos ou mais de idade, fora da força de trabalho, na semana de referência</t>
+          <t>Pessoas de 14 anos ou mais de idade, na força de trabalho, na semana de referência</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>01/07/2022</t>
-        </is>
-      </c>
-      <c r="D30">
-        <v>30.20316174549255</v>
+          <t>01/07/2012</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>49.13884131338699</v>
       </c>
     </row>
     <row r="31">
@@ -967,113 +1043,116 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Taxa de pessoas de 14 anos ou mais de idade, fora da força de trabalho, na semana de referência</t>
+          <t>Pessoas de 14 anos ou mais de idade, na força de trabalho, na semana de referência</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>01/07/2024</t>
-        </is>
-      </c>
-      <c r="D31">
-        <v>30.58235215567456</v>
+          <t>01/07/2014</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>49.27516798522028</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Taxa de pessoas de 14 anos ou mais de idade</t>
+          <t>Pessoas de 14 anos ou mais de idade, na força de trabalho, na semana de referência</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>01/07/2014</t>
-        </is>
-      </c>
-      <c r="D32">
-        <v>76.77104954426495</v>
+          <t>01/07/2016</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>49.80707803815459</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Taxa de pessoas de 14 anos ou mais de idade</t>
+          <t>Pessoas de 14 anos ou mais de idade, na força de trabalho, na semana de referência</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>01/07/2016</t>
-        </is>
-      </c>
-      <c r="D33">
-        <v>77.96395431834404</v>
+          <t>01/07/2018</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>50.76588115985216</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Taxa de pessoas de 14 anos ou mais de idade</t>
+          <t>Pessoas de 14 anos ou mais de idade, na força de trabalho, na semana de referência</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>01/07/2018</t>
-        </is>
-      </c>
-      <c r="D34">
-        <v>78.62626405237985</v>
+          <t>01/07/2020</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>46.40541129024624</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Taxa de pessoas de 14 anos ou mais de idade</t>
+          <t>Pessoas de 14 anos ou mais de idade, na força de trabalho, na semana de referência</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>01/07/2020</t>
-        </is>
+          <t>01/07/2022</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>50.73397663219978</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Taxa de pessoas de 14 anos ou mais de idade</t>
+          <t>Pessoas de 14 anos ou mais de idade, na força de trabalho, na semana de referência</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>01/07/2022</t>
-        </is>
-      </c>
-      <c r="D36">
-        <v>79.771414738735</v>
+          <t>01/07/2024</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>50.66514405698735</v>
       </c>
     </row>
     <row r="37">
@@ -1084,16 +1163,16 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Taxa de pessoas de 14 anos ou mais de idade</t>
+          <t>Pessoas de 14 anos ou mais de idade</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>01/07/2024</t>
-        </is>
-      </c>
-      <c r="D37">
-        <v>80.25357662982952</v>
+          <t>01/07/2012</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>75.84632801373115</v>
       </c>
     </row>
     <row r="38">
@@ -1104,7 +1183,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Taxa de pessoas de 14 anos ou mais de idade, na força de trabalho, na semana de referência</t>
+          <t>Pessoas de 14 anos ou mais de idade</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1112,8 +1191,8 @@
           <t>01/07/2014</t>
         </is>
       </c>
-      <c r="D38">
-        <v>44.51764281202058</v>
+      <c r="D38" t="n">
+        <v>76.77104954426495</v>
       </c>
     </row>
     <row r="39">
@@ -1124,7 +1203,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Taxa de pessoas de 14 anos ou mais de idade, na força de trabalho, na semana de referência</t>
+          <t>Pessoas de 14 anos ou mais de idade</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1132,8 +1211,8 @@
           <t>01/07/2016</t>
         </is>
       </c>
-      <c r="D39">
-        <v>43.76695217701641</v>
+      <c r="D39" t="n">
+        <v>77.96395431834404</v>
       </c>
     </row>
     <row r="40">
@@ -1144,7 +1223,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Taxa de pessoas de 14 anos ou mais de idade, na força de trabalho, na semana de referência</t>
+          <t>Pessoas de 14 anos ou mais de idade</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1152,8 +1231,8 @@
           <t>01/07/2018</t>
         </is>
       </c>
-      <c r="D40">
-        <v>44.13991493567231</v>
+      <c r="D40" t="n">
+        <v>78.62626405237985</v>
       </c>
     </row>
     <row r="41">
@@ -1164,13 +1243,16 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Taxa de pessoas de 14 anos ou mais de idade, na força de trabalho, na semana de referência</t>
+          <t>Pessoas de 14 anos ou mais de idade</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
           <t>01/07/2020</t>
         </is>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1181,7 +1263,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Taxa de pessoas de 14 anos ou mais de idade, na força de trabalho, na semana de referência</t>
+          <t>Pessoas de 14 anos ou mais de idade</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1189,8 +1271,8 @@
           <t>01/07/2022</t>
         </is>
       </c>
-      <c r="D42">
-        <v>43.96375834284331</v>
+      <c r="D42" t="n">
+        <v>79.771414738735</v>
       </c>
     </row>
     <row r="43">
@@ -1201,7 +1283,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Taxa de pessoas de 14 anos ou mais de idade, na força de trabalho, na semana de referência</t>
+          <t>Pessoas de 14 anos ou mais de idade</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1209,8 +1291,8 @@
           <t>01/07/2024</t>
         </is>
       </c>
-      <c r="D43">
-        <v>43.92015762871584</v>
+      <c r="D43" t="n">
+        <v>80.25357662982952</v>
       </c>
     </row>
     <row r="44">
@@ -1221,16 +1303,16 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Taxa de pessoas de 14 anos ou mais de idade ocupadas na semana de referência</t>
+          <t>Pessoas de 14 anos ou mais de idade ocupadas na semana de referência</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>01/07/2014</t>
-        </is>
-      </c>
-      <c r="D44">
-        <v>40.65517552567458</v>
+          <t>01/07/2012</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>39.89519044662747</v>
       </c>
     </row>
     <row r="45">
@@ -1241,16 +1323,16 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Taxa de pessoas de 14 anos ou mais de idade ocupadas na semana de referência</t>
+          <t>Pessoas de 14 anos ou mais de idade ocupadas na semana de referência</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>01/07/2016</t>
-        </is>
-      </c>
-      <c r="D45">
-        <v>37.52498215560314</v>
+          <t>01/07/2014</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>40.65517552567458</v>
       </c>
     </row>
     <row r="46">
@@ -1261,16 +1343,16 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Taxa de pessoas de 14 anos ou mais de idade ocupadas na semana de referência</t>
+          <t>Pessoas de 14 anos ou mais de idade ocupadas na semana de referência</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>01/07/2018</t>
-        </is>
-      </c>
-      <c r="D46">
-        <v>37.70185129626034</v>
+          <t>01/07/2016</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>37.52498215560314</v>
       </c>
     </row>
     <row r="47">
@@ -1281,13 +1363,16 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Taxa de pessoas de 14 anos ou mais de idade ocupadas na semana de referência</t>
+          <t>Pessoas de 14 anos ou mais de idade ocupadas na semana de referência</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>01/07/2020</t>
-        </is>
+          <t>01/07/2018</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>37.70185129626034</v>
       </c>
     </row>
     <row r="48">
@@ -1298,16 +1383,16 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Taxa de pessoas de 14 anos ou mais de idade ocupadas na semana de referência</t>
+          <t>Pessoas de 14 anos ou mais de idade ocupadas na semana de referência</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>01/07/2022</t>
-        </is>
-      </c>
-      <c r="D48">
-        <v>38.70041843898053</v>
+          <t>01/07/2020</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1318,16 +1403,16 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Taxa de pessoas de 14 anos ou mais de idade ocupadas na semana de referência</t>
+          <t>Pessoas de 14 anos ou mais de idade ocupadas na semana de referência</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>01/07/2024</t>
-        </is>
-      </c>
-      <c r="D49">
-        <v>40.11136811445215</v>
+          <t>01/07/2022</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>38.70041843898053</v>
       </c>
     </row>
     <row r="50">
@@ -1338,16 +1423,16 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Taxa de pessoas de 14 anos ou mais de idade, desocupadas na semana de referência</t>
+          <t>Pessoas de 14 anos ou mais de idade ocupadas na semana de referência</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>01/07/2014</t>
-        </is>
-      </c>
-      <c r="D50">
-        <v>3.862467286345998</v>
+          <t>01/07/2024</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>40.11136811445215</v>
       </c>
     </row>
     <row r="51">
@@ -1358,16 +1443,16 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Taxa de pessoas de 14 anos ou mais de idade, desocupadas na semana de referência</t>
+          <t>Pessoas de 14 anos ou mais de idade, desocupadas na semana de referência</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>01/07/2016</t>
-        </is>
-      </c>
-      <c r="D51">
-        <v>6.241970021413276</v>
+          <t>01/07/2012</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>4.163166928386225</v>
       </c>
     </row>
     <row r="52">
@@ -1378,16 +1463,16 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Taxa de pessoas de 14 anos ou mais de idade, desocupadas na semana de referência</t>
+          <t>Pessoas de 14 anos ou mais de idade, desocupadas na semana de referência</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>01/07/2018</t>
-        </is>
-      </c>
-      <c r="D52">
-        <v>6.436298819335369</v>
+          <t>01/07/2014</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>3.862467286345998</v>
       </c>
     </row>
     <row r="53">
@@ -1398,13 +1483,16 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Taxa de pessoas de 14 anos ou mais de idade, desocupadas na semana de referência</t>
+          <t>Pessoas de 14 anos ou mais de idade, desocupadas na semana de referência</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>01/07/2020</t>
-        </is>
+          <t>01/07/2016</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>6.241970021413276</v>
       </c>
     </row>
     <row r="54">
@@ -1415,16 +1503,16 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Taxa de pessoas de 14 anos ou mais de idade, desocupadas na semana de referência</t>
+          <t>Pessoas de 14 anos ou mais de idade, desocupadas na semana de referência</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>01/07/2022</t>
-        </is>
-      </c>
-      <c r="D54">
-        <v>5.26333990386278</v>
+          <t>01/07/2018</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>6.436298819335369</v>
       </c>
     </row>
     <row r="55">
@@ -1435,16 +1523,16 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Taxa de pessoas de 14 anos ou mais de idade, desocupadas na semana de referência</t>
+          <t>Pessoas de 14 anos ou mais de idade, desocupadas na semana de referência</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>01/07/2024</t>
-        </is>
-      </c>
-      <c r="D55">
-        <v>3.808789514263686</v>
+          <t>01/07/2020</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -1455,16 +1543,16 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Taxa de pessoas de 14 anos ou mais de idade, fora da força de trabalho, na semana de referência</t>
+          <t>Pessoas de 14 anos ou mais de idade, desocupadas na semana de referência</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>01/07/2014</t>
-        </is>
-      </c>
-      <c r="D56">
-        <v>32.25340673224439</v>
+          <t>01/07/2022</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>5.26333990386278</v>
       </c>
     </row>
     <row r="57">
@@ -1475,16 +1563,16 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Taxa de pessoas de 14 anos ou mais de idade, fora da força de trabalho, na semana de referência</t>
+          <t>Pessoas de 14 anos ou mais de idade, desocupadas na semana de referência</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>01/07/2016</t>
-        </is>
-      </c>
-      <c r="D57">
-        <v>34.19700214132762</v>
+          <t>01/07/2024</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>3.808789514263686</v>
       </c>
     </row>
     <row r="58">
@@ -1495,16 +1583,16 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Taxa de pessoas de 14 anos ou mais de idade, fora da força de trabalho, na semana de referência</t>
+          <t>Pessoas de 14 anos ou mais de idade, fora da força de trabalho, na semana de referência</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>01/07/2018</t>
-        </is>
-      </c>
-      <c r="D58">
-        <v>34.48811393678415</v>
+          <t>01/07/2012</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>31.78797063871745</v>
       </c>
     </row>
     <row r="59">
@@ -1515,13 +1603,16 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Taxa de pessoas de 14 anos ou mais de idade, fora da força de trabalho, na semana de referência</t>
+          <t>Pessoas de 14 anos ou mais de idade, fora da força de trabalho, na semana de referência</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>01/07/2020</t>
-        </is>
+          <t>01/07/2014</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>32.25340673224439</v>
       </c>
     </row>
     <row r="60">
@@ -1532,16 +1623,16 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Taxa de pessoas de 14 anos ou mais de idade, fora da força de trabalho, na semana de referência</t>
+          <t>Pessoas de 14 anos ou mais de idade, fora da força de trabalho, na semana de referência</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>01/07/2022</t>
-        </is>
-      </c>
-      <c r="D60">
-        <v>35.80765639589169</v>
+          <t>01/07/2016</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>34.19700214132762</v>
       </c>
     </row>
     <row r="61">
@@ -1552,210 +1643,216 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Taxa de pessoas de 14 anos ou mais de idade, fora da força de trabalho, na semana de referência</t>
+          <t>Pessoas de 14 anos ou mais de idade, fora da força de trabalho, na semana de referência</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>01/07/2024</t>
-        </is>
-      </c>
-      <c r="D61">
-        <v>36.33341900111368</v>
+          <t>01/07/2018</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>34.48811393678415</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Taxa de pessoas de 14 anos ou mais de idade</t>
+          <t>Pessoas de 14 anos ou mais de idade, fora da força de trabalho, na semana de referência</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>01/07/2014</t>
-        </is>
-      </c>
-      <c r="D62">
-        <v>76.55894401456531</v>
+          <t>01/07/2020</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Taxa de pessoas de 14 anos ou mais de idade</t>
+          <t>Pessoas de 14 anos ou mais de idade, fora da força de trabalho, na semana de referência</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>01/07/2016</t>
-        </is>
-      </c>
-      <c r="D63">
-        <v>78.83928571428571</v>
+          <t>01/07/2022</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>35.80765639589169</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Taxa de pessoas de 14 anos ou mais de idade</t>
+          <t>Pessoas de 14 anos ou mais de idade, fora da força de trabalho, na semana de referência</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>01/07/2018</t>
-        </is>
-      </c>
-      <c r="D64">
-        <v>77.77290661990355</v>
+          <t>01/07/2024</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>36.33341900111368</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Taxa de pessoas de 14 anos ou mais de idade</t>
+          <t>Pessoas de 14 anos ou mais de idade, na força de trabalho, na semana de referência</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>01/07/2020</t>
-        </is>
+          <t>01/07/2012</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>44.0583573750137</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Taxa de pessoas de 14 anos ou mais de idade</t>
+          <t>Pessoas de 14 anos ou mais de idade, na força de trabalho, na semana de referência</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>01/07/2022</t>
-        </is>
-      </c>
-      <c r="D66">
-        <v>79.11016949152543</v>
+          <t>01/07/2014</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>44.51764281202058</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Taxa de pessoas de 14 anos ou mais de idade</t>
+          <t>Pessoas de 14 anos ou mais de idade, na força de trabalho, na semana de referência</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>01/07/2024</t>
-        </is>
-      </c>
-      <c r="D67">
-        <v>79.96661101836395</v>
+          <t>01/07/2016</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>43.76695217701641</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Taxa de pessoas de 14 anos ou mais de idade, na força de trabalho, na semana de referência</t>
+          <t>Pessoas de 14 anos ou mais de idade, na força de trabalho, na semana de referência</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>01/07/2014</t>
-        </is>
-      </c>
-      <c r="D68">
-        <v>46.15384615384615</v>
+          <t>01/07/2018</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>44.13991493567231</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Taxa de pessoas de 14 anos ou mais de idade, na força de trabalho, na semana de referência</t>
+          <t>Pessoas de 14 anos ou mais de idade, na força de trabalho, na semana de referência</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>01/07/2016</t>
-        </is>
-      </c>
-      <c r="D69">
-        <v>45.80357142857142</v>
+          <t>01/07/2020</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Taxa de pessoas de 14 anos ou mais de idade, na força de trabalho, na semana de referência</t>
+          <t>Pessoas de 14 anos ou mais de idade, na força de trabalho, na semana de referência</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>01/07/2018</t>
-        </is>
-      </c>
-      <c r="D70">
-        <v>45.46251644015783</v>
+          <t>01/07/2022</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>43.96375834284331</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Taxa de pessoas de 14 anos ou mais de idade, na força de trabalho, na semana de referência</t>
+          <t>Pessoas de 14 anos ou mais de idade, na força de trabalho, na semana de referência</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>01/07/2020</t>
-        </is>
+          <t>01/07/2024</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>43.92015762871584</v>
       </c>
     </row>
     <row r="72">
@@ -1766,16 +1863,16 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Taxa de pessoas de 14 anos ou mais de idade, na força de trabalho, na semana de referência</t>
+          <t>Pessoas de 14 anos ou mais de idade</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>01/07/2022</t>
-        </is>
-      </c>
-      <c r="D72">
-        <v>45.76271186440678</v>
+          <t>01/07/2012</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>75.5803156917363</v>
       </c>
     </row>
     <row r="73">
@@ -1786,16 +1883,16 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Taxa de pessoas de 14 anos ou mais de idade, na força de trabalho, na semana de referência</t>
+          <t>Pessoas de 14 anos ou mais de idade</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>01/07/2024</t>
-        </is>
-      </c>
-      <c r="D73">
-        <v>46.78631051752922</v>
+          <t>01/07/2014</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>76.55894401456531</v>
       </c>
     </row>
     <row r="74">
@@ -1806,16 +1903,16 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Taxa de pessoas de 14 anos ou mais de idade ocupadas na semana de referência</t>
+          <t>Pessoas de 14 anos ou mais de idade</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>01/07/2014</t>
-        </is>
-      </c>
-      <c r="D74">
-        <v>41.92080109239873</v>
+          <t>01/07/2016</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>78.83928571428571</v>
       </c>
     </row>
     <row r="75">
@@ -1826,16 +1923,16 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Taxa de pessoas de 14 anos ou mais de idade ocupadas na semana de referência</t>
+          <t>Pessoas de 14 anos ou mais de idade</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>01/07/2016</t>
-        </is>
-      </c>
-      <c r="D75">
-        <v>39.15178571428572</v>
+          <t>01/07/2018</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>77.77290661990355</v>
       </c>
     </row>
     <row r="76">
@@ -1846,16 +1943,16 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Taxa de pessoas de 14 anos ou mais de idade ocupadas na semana de referência</t>
+          <t>Pessoas de 14 anos ou mais de idade</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>01/07/2018</t>
-        </is>
-      </c>
-      <c r="D76">
-        <v>37.48355984217449</v>
+          <t>01/07/2020</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -1866,13 +1963,16 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Taxa de pessoas de 14 anos ou mais de idade ocupadas na semana de referência</t>
+          <t>Pessoas de 14 anos ou mais de idade</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>01/07/2020</t>
-        </is>
+          <t>01/07/2022</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>79.11016949152543</v>
       </c>
     </row>
     <row r="78">
@@ -1883,16 +1983,16 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Taxa de pessoas de 14 anos ou mais de idade ocupadas na semana de referência</t>
+          <t>Pessoas de 14 anos ou mais de idade</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>01/07/2022</t>
-        </is>
-      </c>
-      <c r="D78">
-        <v>40.21186440677966</v>
+          <t>01/07/2024</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>79.96661101836395</v>
       </c>
     </row>
     <row r="79">
@@ -1903,16 +2003,16 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Taxa de pessoas de 14 anos ou mais de idade ocupadas na semana de referência</t>
+          <t>Pessoas de 14 anos ou mais de idade ocupadas na semana de referência</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>01/07/2024</t>
-        </is>
-      </c>
-      <c r="D79">
-        <v>42.86310517529216</v>
+          <t>01/07/2012</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>40.99350046425256</v>
       </c>
     </row>
     <row r="80">
@@ -1923,7 +2023,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Taxa de pessoas de 14 anos ou mais de idade, desocupadas na semana de referência</t>
+          <t>Pessoas de 14 anos ou mais de idade ocupadas na semana de referência</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -1931,8 +2031,8 @@
           <t>01/07/2014</t>
         </is>
       </c>
-      <c r="D80">
-        <v>4.233045061447428</v>
+      <c r="D80" t="n">
+        <v>41.92080109239873</v>
       </c>
     </row>
     <row r="81">
@@ -1943,7 +2043,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Taxa de pessoas de 14 anos ou mais de idade, desocupadas na semana de referência</t>
+          <t>Pessoas de 14 anos ou mais de idade ocupadas na semana de referência</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -1951,8 +2051,8 @@
           <t>01/07/2016</t>
         </is>
       </c>
-      <c r="D81">
-        <v>6.607142857142858</v>
+      <c r="D81" t="n">
+        <v>39.15178571428572</v>
       </c>
     </row>
     <row r="82">
@@ -1963,7 +2063,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Taxa de pessoas de 14 anos ou mais de idade, desocupadas na semana de referência</t>
+          <t>Pessoas de 14 anos ou mais de idade ocupadas na semana de referência</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -1971,8 +2071,8 @@
           <t>01/07/2018</t>
         </is>
       </c>
-      <c r="D82">
-        <v>8.022797018851382</v>
+      <c r="D82" t="n">
+        <v>37.48355984217449</v>
       </c>
     </row>
     <row r="83">
@@ -1983,13 +2083,16 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Taxa de pessoas de 14 anos ou mais de idade, desocupadas na semana de referência</t>
+          <t>Pessoas de 14 anos ou mais de idade ocupadas na semana de referência</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
           <t>01/07/2020</t>
         </is>
+      </c>
+      <c r="D83" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2000,7 +2103,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Taxa de pessoas de 14 anos ou mais de idade, desocupadas na semana de referência</t>
+          <t>Pessoas de 14 anos ou mais de idade ocupadas na semana de referência</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2008,8 +2111,8 @@
           <t>01/07/2022</t>
         </is>
       </c>
-      <c r="D84">
-        <v>5.550847457627119</v>
+      <c r="D84" t="n">
+        <v>40.21186440677966</v>
       </c>
     </row>
     <row r="85">
@@ -2020,7 +2123,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Taxa de pessoas de 14 anos ou mais de idade, desocupadas na semana de referência</t>
+          <t>Pessoas de 14 anos ou mais de idade ocupadas na semana de referência</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2028,8 +2131,8 @@
           <t>01/07/2024</t>
         </is>
       </c>
-      <c r="D85">
-        <v>3.923205342237062</v>
+      <c r="D85" t="n">
+        <v>42.86310517529216</v>
       </c>
     </row>
     <row r="86">
@@ -2040,16 +2143,16 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Taxa de pessoas de 14 anos ou mais de idade, fora da força de trabalho, na semana de referência</t>
+          <t>Pessoas de 14 anos ou mais de idade, desocupadas na semana de referência</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>01/07/2014</t>
-        </is>
-      </c>
-      <c r="D86">
-        <v>30.40509786071916</v>
+          <t>01/07/2012</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>4.874651810584958</v>
       </c>
     </row>
     <row r="87">
@@ -2060,16 +2163,16 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Taxa de pessoas de 14 anos ou mais de idade, fora da força de trabalho, na semana de referência</t>
+          <t>Pessoas de 14 anos ou mais de idade, desocupadas na semana de referência</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>01/07/2016</t>
-        </is>
-      </c>
-      <c r="D87">
-        <v>33.03571428571428</v>
+          <t>01/07/2014</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>4.233045061447428</v>
       </c>
     </row>
     <row r="88">
@@ -2080,16 +2183,16 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Taxa de pessoas de 14 anos ou mais de idade, fora da força de trabalho, na semana de referência</t>
+          <t>Pessoas de 14 anos ou mais de idade, desocupadas na semana de referência</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>01/07/2018</t>
-        </is>
-      </c>
-      <c r="D88">
-        <v>32.26654975887768</v>
+          <t>01/07/2016</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>6.607142857142858</v>
       </c>
     </row>
     <row r="89">
@@ -2100,13 +2203,16 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Taxa de pessoas de 14 anos ou mais de idade, fora da força de trabalho, na semana de referência</t>
+          <t>Pessoas de 14 anos ou mais de idade, desocupadas na semana de referência</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>01/07/2020</t>
-        </is>
+          <t>01/07/2018</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>8.022797018851382</v>
       </c>
     </row>
     <row r="90">
@@ -2117,16 +2223,16 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Taxa de pessoas de 14 anos ou mais de idade, fora da força de trabalho, na semana de referência</t>
+          <t>Pessoas de 14 anos ou mais de idade, desocupadas na semana de referência</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>01/07/2022</t>
-        </is>
-      </c>
-      <c r="D90">
-        <v>33.34745762711864</v>
+          <t>01/07/2020</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2137,19 +2243,319 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Taxa de pessoas de 14 anos ou mais de idade, fora da força de trabalho, na semana de referência</t>
+          <t>Pessoas de 14 anos ou mais de idade, desocupadas na semana de referência</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
+          <t>01/07/2022</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>5.550847457627119</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Pessoas de 14 anos ou mais de idade, desocupadas na semana de referência</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
           <t>01/07/2024</t>
         </is>
       </c>
-      <c r="D91">
+      <c r="D92" t="n">
+        <v>3.923205342237062</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Pessoas de 14 anos ou mais de idade, fora da força de trabalho, na semana de referência</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>01/07/2012</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>29.71216341689879</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Pessoas de 14 anos ou mais de idade, fora da força de trabalho, na semana de referência</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>01/07/2014</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>30.40509786071916</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Pessoas de 14 anos ou mais de idade, fora da força de trabalho, na semana de referência</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>01/07/2016</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>33.03571428571428</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Pessoas de 14 anos ou mais de idade, fora da força de trabalho, na semana de referência</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>01/07/2018</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>32.26654975887768</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Pessoas de 14 anos ou mais de idade, fora da força de trabalho, na semana de referência</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>01/07/2020</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Pessoas de 14 anos ou mais de idade, fora da força de trabalho, na semana de referência</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>01/07/2022</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>33.34745762711864</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Pessoas de 14 anos ou mais de idade, fora da força de trabalho, na semana de referência</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>01/07/2024</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
         <v>33.13856427378965</v>
       </c>
     </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Pessoas de 14 anos ou mais de idade, na força de trabalho, na semana de referência</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>01/07/2012</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>45.86815227483751</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Pessoas de 14 anos ou mais de idade, na força de trabalho, na semana de referência</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>01/07/2014</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>46.15384615384615</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Pessoas de 14 anos ou mais de idade, na força de trabalho, na semana de referência</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>01/07/2016</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>45.80357142857142</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Pessoas de 14 anos ou mais de idade, na força de trabalho, na semana de referência</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>01/07/2018</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>45.46251644015783</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Pessoas de 14 anos ou mais de idade, na força de trabalho, na semana de referência</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>01/07/2020</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Pessoas de 14 anos ou mais de idade, na força de trabalho, na semana de referência</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>01/07/2022</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>45.76271186440678</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Pessoas de 14 anos ou mais de idade, na força de trabalho, na semana de referência</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>01/07/2024</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>46.78631051752922</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Data/t13.1.xlsx
+++ b/Data/t13.1.xlsx
@@ -468,11 +468,11 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>01/07/2012</t>
+          <t>01/10/2012</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>78.18785334283159</v>
+        <v>78.30711837063924</v>
       </c>
     </row>
     <row r="3">
@@ -488,11 +488,11 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>01/07/2014</t>
+          <t>01/10/2014</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>79.04766161593587</v>
+        <v>79.13402020982937</v>
       </c>
     </row>
     <row r="4">
@@ -508,11 +508,11 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>01/07/2016</t>
+          <t>01/10/2016</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>79.67335137194378</v>
+        <v>79.74215875027417</v>
       </c>
     </row>
     <row r="5">
@@ -528,11 +528,11 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>01/07/2018</t>
+          <t>01/10/2018</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>80.16927727925945</v>
+        <v>80.2262217702477</v>
       </c>
     </row>
     <row r="6">
@@ -548,11 +548,11 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>01/07/2020</t>
+          <t>01/10/2020</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>80.596605163257</v>
+        <v>80.64086330391397</v>
       </c>
     </row>
     <row r="7">
@@ -568,11 +568,11 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>01/07/2022</t>
+          <t>01/10/2022</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>80.9366717682631</v>
+        <v>80.97820011179429</v>
       </c>
     </row>
     <row r="8">
@@ -588,11 +588,11 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>01/07/2024</t>
+          <t>01/10/2024</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>81.2474962126619</v>
+        <v>81.28709548394809</v>
       </c>
     </row>
     <row r="9">
@@ -608,11 +608,11 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>01/07/2012</t>
+          <t>01/10/2012</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>45.6320636989658</v>
+        <v>45.67100221818915</v>
       </c>
     </row>
     <row r="10">
@@ -628,11 +628,11 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>01/07/2014</t>
+          <t>01/10/2014</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>45.89212195255193</v>
+        <v>46.07028342328145</v>
       </c>
     </row>
     <row r="11">
@@ -648,11 +648,11 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>01/07/2016</t>
+          <t>01/10/2016</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>43.86947730358591</v>
+        <v>43.9519411205615</v>
       </c>
     </row>
     <row r="12">
@@ -668,11 +668,11 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>01/07/2018</t>
+          <t>01/10/2018</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>44.66478580800823</v>
+        <v>44.86731776579619</v>
       </c>
     </row>
     <row r="13">
@@ -688,11 +688,11 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>01/07/2020</t>
+          <t>01/10/2020</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>39.49550794747753</v>
+        <v>41.21151701850207</v>
       </c>
     </row>
     <row r="14">
@@ -708,11 +708,11 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>01/07/2022</t>
+          <t>01/10/2022</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>46.31985143155773</v>
+        <v>46.28749767095211</v>
       </c>
     </row>
     <row r="15">
@@ -728,11 +728,11 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>01/07/2024</t>
+          <t>01/10/2024</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>47.44141713212169</v>
+        <v>47.72956099175681</v>
       </c>
     </row>
     <row r="16">
@@ -748,11 +748,11 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>01/07/2012</t>
+          <t>01/10/2012</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3.507282840990042</v>
+        <v>3.392821133293003</v>
       </c>
     </row>
     <row r="17">
@@ -768,11 +768,11 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>01/07/2014</t>
+          <t>01/10/2014</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3.383046032668345</v>
+        <v>3.248539272386672</v>
       </c>
     </row>
     <row r="18">
@@ -788,11 +788,11 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>01/07/2016</t>
+          <t>01/10/2016</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>5.937112324538696</v>
+        <v>6.080959227938489</v>
       </c>
     </row>
     <row r="19">
@@ -808,11 +808,11 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>01/07/2018</t>
+          <t>01/10/2018</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>6.101095351843931</v>
+        <v>5.95439108160485</v>
       </c>
     </row>
     <row r="20">
@@ -828,11 +828,11 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>01/07/2020</t>
+          <t>01/10/2020</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>6.909903342768694</v>
+        <v>6.809290722506757</v>
       </c>
     </row>
     <row r="21">
@@ -848,11 +848,11 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>01/07/2022</t>
+          <t>01/10/2022</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>4.414125200642054</v>
+        <v>3.992919694428918</v>
       </c>
     </row>
     <row r="22">
@@ -868,11 +868,11 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>01/07/2024</t>
+          <t>01/10/2024</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>3.223726924865659</v>
+        <v>3.136824005921485</v>
       </c>
     </row>
     <row r="23">
@@ -888,11 +888,11 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>01/07/2012</t>
+          <t>01/10/2012</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>29.04850680287575</v>
+        <v>29.24329501915709</v>
       </c>
     </row>
     <row r="24">
@@ -908,11 +908,11 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>01/07/2014</t>
+          <t>01/10/2014</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>29.7724936307156</v>
+        <v>29.81519751416125</v>
       </c>
     </row>
     <row r="25">
@@ -928,11 +928,11 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>01/07/2016</t>
+          <t>01/10/2016</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>29.86676174381917</v>
+        <v>29.70925840177418</v>
       </c>
     </row>
     <row r="26">
@@ -948,11 +948,11 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>01/07/2018</t>
+          <t>01/10/2018</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>29.40339611940729</v>
+        <v>29.40451292284667</v>
       </c>
     </row>
     <row r="27">
@@ -968,11 +968,11 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>01/07/2020</t>
+          <t>01/10/2020</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>34.19166721890355</v>
+        <v>32.62052803658836</v>
       </c>
     </row>
     <row r="28">
@@ -988,11 +988,11 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>01/07/2022</t>
+          <t>01/10/2022</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>30.20316174549255</v>
+        <v>30.69824855599031</v>
       </c>
     </row>
     <row r="29">
@@ -1008,11 +1008,11 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>01/07/2024</t>
+          <t>01/10/2024</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>30.58235215567456</v>
+        <v>30.42117022890586</v>
       </c>
     </row>
     <row r="30">
@@ -1028,11 +1028,11 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>01/07/2012</t>
+          <t>01/10/2012</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>49.13884131338699</v>
+        <v>49.06331921758419</v>
       </c>
     </row>
     <row r="31">
@@ -1048,11 +1048,11 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>01/07/2014</t>
+          <t>01/10/2014</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>49.27516798522028</v>
+        <v>49.31832711378065</v>
       </c>
     </row>
     <row r="32">
@@ -1068,11 +1068,11 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>01/07/2016</t>
+          <t>01/10/2016</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>49.80707803815459</v>
+        <v>50.03290034849999</v>
       </c>
     </row>
     <row r="33">
@@ -1088,11 +1088,11 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>01/07/2018</t>
+          <t>01/10/2018</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>50.76588115985216</v>
+        <v>50.82170884740103</v>
       </c>
     </row>
     <row r="34">
@@ -1108,11 +1108,11 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>01/07/2020</t>
+          <t>01/10/2020</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>46.40541129024624</v>
+        <v>48.02080774100882</v>
       </c>
     </row>
     <row r="35">
@@ -1128,11 +1128,11 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>01/07/2022</t>
+          <t>01/10/2022</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>50.73397663219978</v>
+        <v>50.28041736538103</v>
       </c>
     </row>
     <row r="36">
@@ -1148,11 +1148,11 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>01/07/2024</t>
+          <t>01/10/2024</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>50.66514405698735</v>
+        <v>50.86592525504224</v>
       </c>
     </row>
     <row r="37">
@@ -1168,11 +1168,11 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>01/07/2012</t>
+          <t>01/10/2012</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>75.84632801373115</v>
+        <v>75.9836633482843</v>
       </c>
     </row>
     <row r="38">
@@ -1188,11 +1188,11 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>01/07/2014</t>
+          <t>01/10/2014</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>76.77104954426495</v>
+        <v>76.89063513805782</v>
       </c>
     </row>
     <row r="39">
@@ -1208,11 +1208,11 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>01/07/2016</t>
+          <t>01/10/2016</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>77.96395431834404</v>
+        <v>78.03952315615032</v>
       </c>
     </row>
     <row r="40">
@@ -1228,11 +1228,11 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>01/07/2018</t>
+          <t>01/10/2018</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>78.62626405237985</v>
+        <v>78.5403338091965</v>
       </c>
     </row>
     <row r="41">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>01/07/2020</t>
+          <t>01/10/2020</t>
         </is>
       </c>
       <c r="D41" t="n">
@@ -1268,11 +1268,11 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>01/07/2022</t>
+          <t>01/10/2022</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>79.771414738735</v>
+        <v>79.82142548745315</v>
       </c>
     </row>
     <row r="43">
@@ -1288,11 +1288,11 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>01/07/2024</t>
+          <t>01/10/2024</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>80.25357662982952</v>
+        <v>80.22009995207777</v>
       </c>
     </row>
     <row r="44">
@@ -1308,11 +1308,11 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>01/07/2012</t>
+          <t>01/10/2012</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>39.89519044662747</v>
+        <v>39.54162564270868</v>
       </c>
     </row>
     <row r="45">
@@ -1328,11 +1328,11 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>01/07/2014</t>
+          <t>01/10/2014</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>40.65517552567458</v>
+        <v>40.92170715882056</v>
       </c>
     </row>
     <row r="46">
@@ -1348,11 +1348,11 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>01/07/2016</t>
+          <t>01/10/2016</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>37.52498215560314</v>
+        <v>37.4596838860279</v>
       </c>
     </row>
     <row r="47">
@@ -1368,11 +1368,11 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>01/07/2018</t>
+          <t>01/10/2018</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>37.70185129626034</v>
+        <v>37.72361162516083</v>
       </c>
     </row>
     <row r="48">
@@ -1388,7 +1388,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>01/07/2020</t>
+          <t>01/10/2020</t>
         </is>
       </c>
       <c r="D48" t="n">
@@ -1408,11 +1408,11 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>01/07/2022</t>
+          <t>01/10/2022</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>38.70041843898053</v>
+        <v>38.82527675595392</v>
       </c>
     </row>
     <row r="50">
@@ -1428,11 +1428,11 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>01/07/2024</t>
+          <t>01/10/2024</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>40.11136811445215</v>
+        <v>40.43609228452112</v>
       </c>
     </row>
     <row r="51">
@@ -1448,11 +1448,11 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>01/07/2012</t>
+          <t>01/10/2012</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>4.163166928386225</v>
+        <v>4.091456077015645</v>
       </c>
     </row>
     <row r="52">
@@ -1468,11 +1468,11 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>01/07/2014</t>
+          <t>01/10/2014</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>3.862467286345998</v>
+        <v>3.719991348857328</v>
       </c>
     </row>
     <row r="53">
@@ -1488,11 +1488,11 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>01/07/2016</t>
+          <t>01/10/2016</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>6.241970021413276</v>
+        <v>6.365045706445232</v>
       </c>
     </row>
     <row r="54">
@@ -1508,11 +1508,11 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>01/07/2018</t>
+          <t>01/10/2018</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>6.436298819335369</v>
+        <v>6.418865330724898</v>
       </c>
     </row>
     <row r="55">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>01/07/2020</t>
+          <t>01/10/2020</t>
         </is>
       </c>
       <c r="D55" t="n">
@@ -1548,11 +1548,11 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>01/07/2022</t>
+          <t>01/10/2022</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>5.26333990386278</v>
+        <v>4.728597827400998</v>
       </c>
     </row>
     <row r="57">
@@ -1568,11 +1568,11 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>01/07/2024</t>
+          <t>01/10/2024</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>3.808789514263686</v>
+        <v>3.816663243650305</v>
       </c>
     </row>
     <row r="58">
@@ -1588,11 +1588,11 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>01/07/2012</t>
+          <t>01/10/2012</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>31.78797063871745</v>
+        <v>32.35058162855996</v>
       </c>
     </row>
     <row r="59">
@@ -1608,11 +1608,11 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>01/07/2014</t>
+          <t>01/10/2014</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>32.25340673224439</v>
+        <v>32.24893663037993</v>
       </c>
     </row>
     <row r="60">
@@ -1628,11 +1628,11 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>01/07/2016</t>
+          <t>01/10/2016</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>34.19700214132762</v>
+        <v>34.21657549136656</v>
       </c>
     </row>
     <row r="61">
@@ -1648,11 +1648,11 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>01/07/2018</t>
+          <t>01/10/2018</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>34.48811393678415</v>
+        <v>34.39961930946968</v>
       </c>
     </row>
     <row r="62">
@@ -1668,7 +1668,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>01/07/2020</t>
+          <t>01/10/2020</t>
         </is>
       </c>
       <c r="D62" t="n">
@@ -1688,11 +1688,11 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>01/07/2022</t>
+          <t>01/10/2022</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>35.80765639589169</v>
+        <v>36.2658238778647</v>
       </c>
     </row>
     <row r="64">
@@ -1708,11 +1708,11 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>01/07/2024</t>
+          <t>01/10/2024</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>36.33341900111368</v>
+        <v>35.96905593208736</v>
       </c>
     </row>
     <row r="65">
@@ -1728,11 +1728,11 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>01/07/2012</t>
+          <t>01/10/2012</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>44.0583573750137</v>
+        <v>43.63308171972432</v>
       </c>
     </row>
     <row r="66">
@@ -1748,11 +1748,11 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>01/07/2014</t>
+          <t>01/10/2014</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>44.51764281202058</v>
+        <v>44.64169850767789</v>
       </c>
     </row>
     <row r="67">
@@ -1768,11 +1768,11 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>01/07/2016</t>
+          <t>01/10/2016</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>43.76695217701641</v>
+        <v>43.82294766478376</v>
       </c>
     </row>
     <row r="68">
@@ -1788,11 +1788,11 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>01/07/2018</t>
+          <t>01/10/2018</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>44.13991493567231</v>
+        <v>44.14071449972682</v>
       </c>
     </row>
     <row r="69">
@@ -1808,7 +1808,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>01/07/2020</t>
+          <t>01/10/2020</t>
         </is>
       </c>
       <c r="D69" t="n">
@@ -1828,11 +1828,11 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>01/07/2022</t>
+          <t>01/10/2022</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>43.96375834284331</v>
+        <v>43.55560160958845</v>
       </c>
     </row>
     <row r="71">
@@ -1848,11 +1848,11 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>01/07/2024</t>
+          <t>01/10/2024</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>43.92015762871584</v>
+        <v>44.25104401999042</v>
       </c>
     </row>
     <row r="72">
@@ -1868,11 +1868,11 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>01/07/2012</t>
+          <t>01/10/2012</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>75.5803156917363</v>
+        <v>76.38888888888889</v>
       </c>
     </row>
     <row r="73">
@@ -1888,11 +1888,11 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>01/07/2014</t>
+          <t>01/10/2014</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>76.55894401456531</v>
+        <v>76.89514298683613</v>
       </c>
     </row>
     <row r="74">
@@ -1908,11 +1908,11 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>01/07/2016</t>
+          <t>01/10/2016</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>78.83928571428571</v>
+        <v>78.88641425389756</v>
       </c>
     </row>
     <row r="75">
@@ -1928,11 +1928,11 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>01/07/2018</t>
+          <t>01/10/2018</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>77.77290661990355</v>
+        <v>78.82764654418197</v>
       </c>
     </row>
     <row r="76">
@@ -1948,7 +1948,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>01/07/2020</t>
+          <t>01/10/2020</t>
         </is>
       </c>
       <c r="D76" t="n">
@@ -1968,11 +1968,11 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>01/07/2022</t>
+          <t>01/10/2022</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>79.11016949152543</v>
+        <v>78.55329949238579</v>
       </c>
     </row>
     <row r="78">
@@ -1988,11 +1988,11 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>01/07/2024</t>
+          <t>01/10/2024</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>79.96661101836395</v>
+        <v>79.46688879633486</v>
       </c>
     </row>
     <row r="79">
@@ -2008,11 +2008,11 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>01/07/2012</t>
+          <t>01/10/2012</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>40.99350046425256</v>
+        <v>42.82407407407408</v>
       </c>
     </row>
     <row r="80">
@@ -2028,11 +2028,11 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>01/07/2014</t>
+          <t>01/10/2014</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>41.92080109239873</v>
+        <v>42.71448025419883</v>
       </c>
     </row>
     <row r="81">
@@ -2048,11 +2048,11 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>01/07/2016</t>
+          <t>01/10/2016</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>39.15178571428572</v>
+        <v>38.75278396436526</v>
       </c>
     </row>
     <row r="82">
@@ -2068,11 +2068,11 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>01/07/2018</t>
+          <t>01/10/2018</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>37.48355984217449</v>
+        <v>39.501312335958</v>
       </c>
     </row>
     <row r="83">
@@ -2088,7 +2088,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>01/07/2020</t>
+          <t>01/10/2020</t>
         </is>
       </c>
       <c r="D83" t="n">
@@ -2108,11 +2108,11 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>01/07/2022</t>
+          <t>01/10/2022</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>40.21186440677966</v>
+        <v>40.82064297800338</v>
       </c>
     </row>
     <row r="85">
@@ -2128,11 +2128,11 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>01/07/2024</t>
+          <t>01/10/2024</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>42.86310517529216</v>
+        <v>42.44064972927946</v>
       </c>
     </row>
     <row r="86">
@@ -2148,11 +2148,11 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>01/07/2012</t>
+          <t>01/10/2012</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>4.874651810584958</v>
+        <v>4.583333333333333</v>
       </c>
     </row>
     <row r="87">
@@ -2168,11 +2168,11 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>01/07/2014</t>
+          <t>01/10/2014</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>4.233045061447428</v>
+        <v>4.221516114389469</v>
       </c>
     </row>
     <row r="88">
@@ -2188,11 +2188,11 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>01/07/2016</t>
+          <t>01/10/2016</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>6.607142857142858</v>
+        <v>6.948775055679287</v>
       </c>
     </row>
     <row r="89">
@@ -2208,11 +2208,11 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>01/07/2018</t>
+          <t>01/10/2018</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>8.022797018851382</v>
+        <v>7.042869641294838</v>
       </c>
     </row>
     <row r="90">
@@ -2228,7 +2228,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>01/07/2020</t>
+          <t>01/10/2020</t>
         </is>
       </c>
       <c r="D90" t="n">
@@ -2248,11 +2248,11 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>01/07/2022</t>
+          <t>01/10/2022</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>5.550847457627119</v>
+        <v>5.541455160744501</v>
       </c>
     </row>
     <row r="92">
@@ -2268,11 +2268,11 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>01/07/2024</t>
+          <t>01/10/2024</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>3.923205342237062</v>
+        <v>3.915035401915869</v>
       </c>
     </row>
     <row r="93">
@@ -2288,11 +2288,11 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>01/07/2012</t>
+          <t>01/10/2012</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>29.71216341689879</v>
+        <v>28.98148148148148</v>
       </c>
     </row>
     <row r="94">
@@ -2308,11 +2308,11 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>01/07/2014</t>
+          <t>01/10/2014</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>30.40509786071916</v>
+        <v>29.95914661824785</v>
       </c>
     </row>
     <row r="95">
@@ -2328,11 +2328,11 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>01/07/2016</t>
+          <t>01/10/2016</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>33.03571428571428</v>
+        <v>33.2293986636971</v>
       </c>
     </row>
     <row r="96">
@@ -2348,11 +2348,11 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>01/07/2018</t>
+          <t>01/10/2018</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>32.26654975887768</v>
+        <v>32.23972003499563</v>
       </c>
     </row>
     <row r="97">
@@ -2368,7 +2368,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>01/07/2020</t>
+          <t>01/10/2020</t>
         </is>
       </c>
       <c r="D97" t="n">
@@ -2388,11 +2388,11 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>01/07/2022</t>
+          <t>01/10/2022</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>33.34745762711864</v>
+        <v>32.1912013536379</v>
       </c>
     </row>
     <row r="99">
@@ -2408,11 +2408,11 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>01/07/2024</t>
+          <t>01/10/2024</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>33.13856427378965</v>
+        <v>33.11120366513953</v>
       </c>
     </row>
     <row r="100">
@@ -2428,11 +2428,11 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>01/07/2012</t>
+          <t>01/10/2012</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>45.86815227483751</v>
+        <v>47.40740740740741</v>
       </c>
     </row>
     <row r="101">
@@ -2448,11 +2448,11 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>01/07/2014</t>
+          <t>01/10/2014</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>46.15384615384615</v>
+        <v>46.93599636858829</v>
       </c>
     </row>
     <row r="102">
@@ -2468,11 +2468,11 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>01/07/2016</t>
+          <t>01/10/2016</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>45.80357142857142</v>
+        <v>45.70155902004454</v>
       </c>
     </row>
     <row r="103">
@@ -2488,11 +2488,11 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>01/07/2018</t>
+          <t>01/10/2018</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>45.46251644015783</v>
+        <v>46.58792650918635</v>
       </c>
     </row>
     <row r="104">
@@ -2508,7 +2508,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>01/07/2020</t>
+          <t>01/10/2020</t>
         </is>
       </c>
       <c r="D104" t="n">
@@ -2528,11 +2528,11 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>01/07/2022</t>
+          <t>01/10/2022</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>45.76271186440678</v>
+        <v>46.36209813874789</v>
       </c>
     </row>
     <row r="106">
@@ -2548,11 +2548,11 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>01/07/2024</t>
+          <t>01/10/2024</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>46.78631051752922</v>
+        <v>46.39733444398168</v>
       </c>
     </row>
   </sheetData>

--- a/Data/t13.1.xlsx
+++ b/Data/t13.1.xlsx
@@ -468,11 +468,11 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>01/10/2012</t>
+          <t>01/04/2013</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>78.30711837063924</v>
+        <v>78.36935839482931</v>
       </c>
     </row>
     <row r="3">
@@ -488,11 +488,11 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>01/10/2014</t>
+          <t>01/04/2015</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>79.13402020982937</v>
+        <v>79.11397427123318</v>
       </c>
     </row>
     <row r="4">
@@ -508,11 +508,11 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>01/10/2016</t>
+          <t>01/04/2017</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>79.74215875027417</v>
+        <v>79.72812284384679</v>
       </c>
     </row>
     <row r="5">
@@ -528,11 +528,11 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>01/10/2018</t>
+          <t>01/04/2019</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>80.2262217702477</v>
+        <v>80.23577424471007</v>
       </c>
     </row>
     <row r="6">
@@ -548,11 +548,11 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>01/10/2020</t>
+          <t>01/04/2021</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>80.64086330391397</v>
+        <v>80.73708333931381</v>
       </c>
     </row>
     <row r="7">
@@ -568,11 +568,11 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
+          <t>01/04/2023</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>80.97820011179429</v>
+        <v>81.261256991184</v>
       </c>
     </row>
     <row r="8">
@@ -588,11 +588,11 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>01/10/2024</t>
+          <t>01/04/2025</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>81.28709548394809</v>
+        <v>81.83249814315128</v>
       </c>
     </row>
     <row r="9">
@@ -608,11 +608,11 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>01/10/2012</t>
+          <t>01/04/2013</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>45.67100221818915</v>
+        <v>45.51490501263478</v>
       </c>
     </row>
     <row r="10">
@@ -628,11 +628,11 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>01/10/2014</t>
+          <t>01/04/2015</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>46.07028342328145</v>
+        <v>45.40373533291675</v>
       </c>
     </row>
     <row r="11">
@@ -648,11 +648,11 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>01/10/2016</t>
+          <t>01/04/2017</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>43.9519411205615</v>
+        <v>43.63099869346291</v>
       </c>
     </row>
     <row r="12">
@@ -668,11 +668,11 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>01/10/2018</t>
+          <t>01/04/2019</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>44.86731776579619</v>
+        <v>44.80581022010754</v>
       </c>
     </row>
     <row r="13">
@@ -688,11 +688,11 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>01/10/2020</t>
+          <t>01/04/2021</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>41.21151701850207</v>
+        <v>41.97968547410927</v>
       </c>
     </row>
     <row r="14">
@@ -708,11 +708,11 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
+          <t>01/04/2023</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>46.28749767095211</v>
+        <v>45.99393307422505</v>
       </c>
     </row>
     <row r="15">
@@ -728,11 +728,11 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>01/10/2024</t>
+          <t>01/04/2025</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>47.72956099175681</v>
+        <v>48.09755272040089</v>
       </c>
     </row>
     <row r="16">
@@ -748,11 +748,11 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>01/10/2012</t>
+          <t>01/04/2013</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3.392821133293003</v>
+        <v>3.693785299358697</v>
       </c>
     </row>
     <row r="17">
@@ -768,11 +768,11 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>01/10/2014</t>
+          <t>01/04/2015</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3.248539272386672</v>
+        <v>4.169766219339225</v>
       </c>
     </row>
     <row r="18">
@@ -788,11 +788,11 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>01/10/2016</t>
+          <t>01/04/2017</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>6.080959227938489</v>
+        <v>6.569385927567932</v>
       </c>
     </row>
     <row r="19">
@@ -808,11 +808,11 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>01/10/2018</t>
+          <t>01/04/2019</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>5.95439108160485</v>
+        <v>6.187865072917875</v>
       </c>
     </row>
     <row r="20">
@@ -828,11 +828,11 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>01/10/2020</t>
+          <t>01/04/2021</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>6.809290722506757</v>
+        <v>6.971815150253811</v>
       </c>
     </row>
     <row r="21">
@@ -848,11 +848,11 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
+          <t>01/04/2023</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>3.992919694428918</v>
+        <v>4.013650582993648</v>
       </c>
     </row>
     <row r="22">
@@ -868,11 +868,11 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>01/10/2024</t>
+          <t>01/04/2025</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>3.136824005921485</v>
+        <v>2.939462030969416</v>
       </c>
     </row>
     <row r="23">
@@ -888,11 +888,11 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>01/10/2012</t>
+          <t>01/04/2013</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>29.24329501915709</v>
+        <v>29.16117146049996</v>
       </c>
     </row>
     <row r="24">
@@ -908,11 +908,11 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>01/10/2014</t>
+          <t>01/04/2015</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>29.81519751416125</v>
+        <v>29.54096864740481</v>
       </c>
     </row>
     <row r="25">
@@ -928,11 +928,11 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>01/10/2016</t>
+          <t>01/04/2017</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>29.70925840177418</v>
+        <v>29.52822756254985</v>
       </c>
     </row>
     <row r="26">
@@ -948,11 +948,11 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>01/10/2018</t>
+          <t>01/04/2019</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>29.40451292284667</v>
+        <v>29.24209895168465</v>
       </c>
     </row>
     <row r="27">
@@ -968,11 +968,11 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>01/10/2020</t>
+          <t>01/04/2021</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>32.62052803658836</v>
+        <v>31.78558271495075</v>
       </c>
     </row>
     <row r="28">
@@ -988,11 +988,11 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
+          <t>01/04/2023</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>30.69824855599031</v>
+        <v>31.25414731254147</v>
       </c>
     </row>
     <row r="29">
@@ -1008,11 +1008,11 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>01/10/2024</t>
+          <t>01/04/2025</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>30.42117022890586</v>
+        <v>30.79548339178098</v>
       </c>
     </row>
     <row r="30">
@@ -1028,11 +1028,11 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>01/10/2012</t>
+          <t>01/04/2013</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>49.06331921758419</v>
+        <v>49.20818693432935</v>
       </c>
     </row>
     <row r="31">
@@ -1048,11 +1048,11 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>01/10/2014</t>
+          <t>01/04/2015</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>49.31832711378065</v>
+        <v>49.57300562382837</v>
       </c>
     </row>
     <row r="32">
@@ -1068,11 +1068,11 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>01/10/2016</t>
+          <t>01/04/2017</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>50.03290034849999</v>
+        <v>50.20038462103085</v>
       </c>
     </row>
     <row r="33">
@@ -1088,11 +1088,11 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>01/10/2018</t>
+          <t>01/04/2019</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>50.82170884740103</v>
+        <v>50.994158833314</v>
       </c>
     </row>
     <row r="34">
@@ -1108,11 +1108,11 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>01/10/2020</t>
+          <t>01/04/2021</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>48.02080774100882</v>
+        <v>48.95150062436308</v>
       </c>
     </row>
     <row r="35">
@@ -1128,11 +1128,11 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
+          <t>01/04/2023</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>50.28041736538103</v>
+        <v>50.00710967864252</v>
       </c>
     </row>
     <row r="36">
@@ -1148,11 +1148,11 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>01/10/2024</t>
+          <t>01/04/2025</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>50.86592525504224</v>
+        <v>51.0370147513703</v>
       </c>
     </row>
     <row r="37">
@@ -1168,11 +1168,11 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>01/10/2012</t>
+          <t>01/04/2013</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>75.9836633482843</v>
+        <v>75.96452246726774</v>
       </c>
     </row>
     <row r="38">
@@ -1188,11 +1188,11 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>01/10/2014</t>
+          <t>01/04/2015</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>76.89063513805782</v>
+        <v>76.96066854391862</v>
       </c>
     </row>
     <row r="39">
@@ -1208,11 +1208,11 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>01/10/2016</t>
+          <t>01/04/2017</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>78.03952315615032</v>
+        <v>78.04030951952493</v>
       </c>
     </row>
     <row r="40">
@@ -1228,11 +1228,11 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>01/10/2018</t>
+          <t>01/04/2019</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>78.5403338091965</v>
+        <v>78.6671663900341</v>
       </c>
     </row>
     <row r="41">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>01/10/2020</t>
+          <t>01/04/2021</t>
         </is>
       </c>
       <c r="D41" t="n">
@@ -1268,11 +1268,11 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
+          <t>01/04/2023</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>79.82142548745315</v>
+        <v>79.97745724802311</v>
       </c>
     </row>
     <row r="43">
@@ -1288,11 +1288,11 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>01/10/2024</t>
+          <t>01/04/2025</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>80.22009995207777</v>
+        <v>80.88755737762359</v>
       </c>
     </row>
     <row r="44">
@@ -1308,11 +1308,11 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>01/10/2012</t>
+          <t>01/04/2013</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>39.54162564270868</v>
+        <v>39.00875920450998</v>
       </c>
     </row>
     <row r="45">
@@ -1328,11 +1328,11 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>01/10/2014</t>
+          <t>01/04/2015</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>40.92170715882056</v>
+        <v>40.19075302025615</v>
       </c>
     </row>
     <row r="46">
@@ -1348,11 +1348,11 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>01/10/2016</t>
+          <t>01/04/2017</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>37.4596838860279</v>
+        <v>36.60968148281447</v>
       </c>
     </row>
     <row r="47">
@@ -1368,11 +1368,11 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>01/10/2018</t>
+          <t>01/04/2019</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>37.72361162516083</v>
+        <v>37.50602345130375</v>
       </c>
     </row>
     <row r="48">
@@ -1388,7 +1388,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>01/10/2020</t>
+          <t>01/04/2021</t>
         </is>
       </c>
       <c r="D48" t="n">
@@ -1408,11 +1408,11 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
+          <t>01/04/2023</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>38.82527675595392</v>
+        <v>37.94931403110196</v>
       </c>
     </row>
     <row r="50">
@@ -1428,11 +1428,11 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>01/10/2024</t>
+          <t>01/04/2025</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>40.43609228452112</v>
+        <v>40.44290269455833</v>
       </c>
     </row>
     <row r="51">
@@ -1448,11 +1448,11 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>01/10/2012</t>
+          <t>01/04/2013</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>4.091456077015645</v>
+        <v>4.388783811080302</v>
       </c>
     </row>
     <row r="52">
@@ -1468,11 +1468,11 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>01/10/2014</t>
+          <t>01/04/2015</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>3.719991348857328</v>
+        <v>4.645290217095104</v>
       </c>
     </row>
     <row r="53">
@@ -1488,11 +1488,11 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>01/10/2016</t>
+          <t>01/04/2017</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>6.365045706445232</v>
+        <v>6.947993521684362</v>
       </c>
     </row>
     <row r="54">
@@ -1508,11 +1508,11 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>01/10/2018</t>
+          <t>01/04/2019</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>6.418865330724898</v>
+        <v>6.501757955417537</v>
       </c>
     </row>
     <row r="55">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>01/10/2020</t>
+          <t>01/04/2021</t>
         </is>
       </c>
       <c r="D55" t="n">
@@ -1548,11 +1548,11 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
+          <t>01/04/2023</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>4.728597827400998</v>
+        <v>4.851975132526726</v>
       </c>
     </row>
     <row r="57">
@@ -1568,11 +1568,11 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>01/10/2024</t>
+          <t>01/04/2025</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>3.816663243650305</v>
+        <v>3.628368197904622</v>
       </c>
     </row>
     <row r="58">
@@ -1588,11 +1588,11 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>01/10/2012</t>
+          <t>01/04/2013</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>32.35058162855996</v>
+        <v>32.56697945167747</v>
       </c>
     </row>
     <row r="59">
@@ -1608,11 +1608,11 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>01/10/2014</t>
+          <t>01/04/2015</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>32.24893663037993</v>
+        <v>32.12462530656735</v>
       </c>
     </row>
     <row r="60">
@@ -1628,11 +1628,11 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>01/10/2016</t>
+          <t>01/04/2017</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>34.21657549136656</v>
+        <v>34.48263451502609</v>
       </c>
     </row>
     <row r="61">
@@ -1648,11 +1648,11 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>01/10/2018</t>
+          <t>01/04/2019</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>34.39961930946968</v>
+        <v>34.66116970962503</v>
       </c>
     </row>
     <row r="62">
@@ -1668,7 +1668,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>01/10/2020</t>
+          <t>01/04/2021</t>
         </is>
       </c>
       <c r="D62" t="n">
@@ -1688,11 +1688,11 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
+          <t>01/04/2023</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>36.2658238778647</v>
+        <v>37.17616808439443</v>
       </c>
     </row>
     <row r="64">
@@ -1708,11 +1708,11 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>01/10/2024</t>
+          <t>01/04/2025</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>35.96905593208736</v>
+        <v>36.81628648516066</v>
       </c>
     </row>
     <row r="65">
@@ -1728,11 +1728,11 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>01/10/2012</t>
+          <t>01/04/2013</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>43.63308171972432</v>
+        <v>43.39754301559029</v>
       </c>
     </row>
     <row r="66">
@@ -1748,11 +1748,11 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>01/10/2014</t>
+          <t>01/04/2015</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>44.64169850767789</v>
+        <v>44.83604323735126</v>
       </c>
     </row>
     <row r="67">
@@ -1768,11 +1768,11 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>01/10/2016</t>
+          <t>01/04/2017</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>43.82294766478376</v>
+        <v>43.55767500449883</v>
       </c>
     </row>
     <row r="68">
@@ -1788,11 +1788,11 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>01/10/2018</t>
+          <t>01/04/2019</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>44.14071449972682</v>
+        <v>44.00778140672128</v>
       </c>
     </row>
     <row r="69">
@@ -1808,7 +1808,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>01/10/2020</t>
+          <t>01/04/2021</t>
         </is>
       </c>
       <c r="D69" t="n">
@@ -1828,11 +1828,11 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
+          <t>01/04/2023</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>43.55560160958845</v>
+        <v>42.80128916362868</v>
       </c>
     </row>
     <row r="71">
@@ -1848,11 +1848,11 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>01/10/2024</t>
+          <t>01/04/2025</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>44.25104401999042</v>
+        <v>44.07127089246294</v>
       </c>
     </row>
     <row r="72">
@@ -1868,11 +1868,11 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>01/10/2012</t>
+          <t>01/04/2013</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>76.38888888888889</v>
+        <v>76.63246268656717</v>
       </c>
     </row>
     <row r="73">
@@ -1888,11 +1888,11 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>01/10/2014</t>
+          <t>01/04/2015</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>76.89514298683613</v>
+        <v>77.69619091326297</v>
       </c>
     </row>
     <row r="74">
@@ -1908,11 +1908,11 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>01/10/2016</t>
+          <t>01/04/2017</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>78.88641425389756</v>
+        <v>78.46153846153847</v>
       </c>
     </row>
     <row r="75">
@@ -1928,11 +1928,11 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>01/10/2018</t>
+          <t>01/04/2019</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>78.82764654418197</v>
+        <v>78.76620473848904</v>
       </c>
     </row>
     <row r="76">
@@ -1948,7 +1948,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>01/10/2020</t>
+          <t>01/04/2021</t>
         </is>
       </c>
       <c r="D76" t="n">
@@ -1968,11 +1968,11 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
+          <t>01/04/2023</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>78.55329949238579</v>
+        <v>78.52760736196319</v>
       </c>
     </row>
     <row r="78">
@@ -1988,11 +1988,11 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>01/10/2024</t>
+          <t>01/04/2025</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>79.46688879633486</v>
+        <v>79.82608695652173</v>
       </c>
     </row>
     <row r="79">
@@ -2008,11 +2008,11 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>01/10/2012</t>
+          <t>01/04/2013</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>42.82407407407408</v>
+        <v>41.18470149253731</v>
       </c>
     </row>
     <row r="80">
@@ -2028,11 +2028,11 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>01/10/2014</t>
+          <t>01/04/2015</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>42.71448025419883</v>
+        <v>42.4506654428637</v>
       </c>
     </row>
     <row r="81">
@@ -2048,11 +2048,11 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>01/10/2016</t>
+          <t>01/04/2017</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>38.75278396436526</v>
+        <v>38.55203619909503</v>
       </c>
     </row>
     <row r="82">
@@ -2068,11 +2068,11 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>01/10/2018</t>
+          <t>01/04/2019</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>39.501312335958</v>
+        <v>40.32185963343764</v>
       </c>
     </row>
     <row r="83">
@@ -2088,7 +2088,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>01/10/2020</t>
+          <t>01/04/2021</t>
         </is>
       </c>
       <c r="D83" t="n">
@@ -2108,11 +2108,11 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
+          <t>01/04/2023</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>40.82064297800338</v>
+        <v>39.83347940403155</v>
       </c>
     </row>
     <row r="85">
@@ -2128,11 +2128,11 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>01/10/2024</t>
+          <t>01/04/2025</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>42.44064972927946</v>
+        <v>41.21739130434783</v>
       </c>
     </row>
     <row r="86">
@@ -2148,11 +2148,11 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>01/10/2012</t>
+          <t>01/04/2013</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>4.583333333333333</v>
+        <v>5.270522388059701</v>
       </c>
     </row>
     <row r="87">
@@ -2168,11 +2168,11 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>01/10/2014</t>
+          <t>01/04/2015</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>4.221516114389469</v>
+        <v>4.313905461220743</v>
       </c>
     </row>
     <row r="88">
@@ -2188,11 +2188,11 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>01/10/2016</t>
+          <t>01/04/2017</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>6.948775055679287</v>
+        <v>6.425339366515836</v>
       </c>
     </row>
     <row r="89">
@@ -2208,11 +2208,11 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>01/10/2018</t>
+          <t>01/04/2019</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>7.042869641294838</v>
+        <v>7.375949932945909</v>
       </c>
     </row>
     <row r="90">
@@ -2228,7 +2228,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>01/10/2020</t>
+          <t>01/04/2021</t>
         </is>
       </c>
       <c r="D90" t="n">
@@ -2248,11 +2248,11 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
+          <t>01/04/2023</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>5.541455160744501</v>
+        <v>4.601226993865031</v>
       </c>
     </row>
     <row r="92">
@@ -2268,11 +2268,11 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>01/10/2024</t>
+          <t>01/04/2025</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>3.915035401915869</v>
+        <v>3.608695652173913</v>
       </c>
     </row>
     <row r="93">
@@ -2288,11 +2288,11 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>01/10/2012</t>
+          <t>01/04/2013</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>28.98148148148148</v>
+        <v>30.17723880597015</v>
       </c>
     </row>
     <row r="94">
@@ -2308,11 +2308,11 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>01/10/2014</t>
+          <t>01/04/2015</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>29.95914661824785</v>
+        <v>30.9775126204681</v>
       </c>
     </row>
     <row r="95">
@@ -2328,11 +2328,11 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>01/10/2016</t>
+          <t>01/04/2017</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>33.2293986636971</v>
+        <v>33.43891402714932</v>
       </c>
     </row>
     <row r="96">
@@ -2348,11 +2348,11 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>01/10/2018</t>
+          <t>01/04/2019</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>32.23972003499563</v>
+        <v>31.0683951721055</v>
       </c>
     </row>
     <row r="97">
@@ -2368,7 +2368,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>01/10/2020</t>
+          <t>01/04/2021</t>
         </is>
       </c>
       <c r="D97" t="n">
@@ -2388,11 +2388,11 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
+          <t>01/04/2023</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>32.1912013536379</v>
+        <v>34.09290096406661</v>
       </c>
     </row>
     <row r="99">
@@ -2408,11 +2408,11 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>01/10/2024</t>
+          <t>01/04/2025</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>33.11120366513953</v>
+        <v>35.04347826086956</v>
       </c>
     </row>
     <row r="100">
@@ -2428,11 +2428,11 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>01/10/2012</t>
+          <t>01/04/2013</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>47.40740740740741</v>
+        <v>46.50186567164179</v>
       </c>
     </row>
     <row r="101">
@@ -2448,11 +2448,11 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>01/10/2014</t>
+          <t>01/04/2015</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>46.93599636858829</v>
+        <v>46.76457090408444</v>
       </c>
     </row>
     <row r="102">
@@ -2468,11 +2468,11 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>01/10/2016</t>
+          <t>01/04/2017</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>45.70155902004454</v>
+        <v>45.02262443438914</v>
       </c>
     </row>
     <row r="103">
@@ -2488,11 +2488,11 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>01/10/2018</t>
+          <t>01/04/2019</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>46.58792650918635</v>
+        <v>47.74251229324989</v>
       </c>
     </row>
     <row r="104">
@@ -2508,7 +2508,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>01/10/2020</t>
+          <t>01/04/2021</t>
         </is>
       </c>
       <c r="D104" t="n">
@@ -2528,11 +2528,11 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
+          <t>01/04/2023</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>46.36209813874789</v>
+        <v>44.3908851884312</v>
       </c>
     </row>
     <row r="106">
@@ -2548,11 +2548,11 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>01/10/2024</t>
+          <t>01/04/2025</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>46.39733444398168</v>
+        <v>44.82608695652173</v>
       </c>
     </row>
   </sheetData>

--- a/Data/t13.1.xlsx
+++ b/Data/t13.1.xlsx
@@ -468,11 +468,11 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>01/04/2013</t>
+          <t>01/07/2013</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>78.36935839482931</v>
+        <v>78.47525747299674</v>
       </c>
     </row>
     <row r="3">
@@ -488,11 +488,11 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>01/04/2015</t>
+          <t>01/07/2015</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>79.11397427123318</v>
+        <v>79.19484351330212</v>
       </c>
     </row>
     <row r="4">
@@ -508,11 +508,11 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>01/04/2017</t>
+          <t>01/07/2017</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>79.72812284384679</v>
+        <v>79.79773304670705</v>
       </c>
     </row>
     <row r="5">
@@ -528,11 +528,11 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>01/04/2019</t>
+          <t>01/07/2019</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>80.23577424471007</v>
+        <v>80.30024287900956</v>
       </c>
     </row>
     <row r="6">
@@ -548,11 +548,11 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>01/04/2021</t>
+          <t>01/07/2021</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>80.73708333931381</v>
+        <v>80.79790131597809</v>
       </c>
     </row>
     <row r="7">
@@ -568,11 +568,11 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>01/04/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>81.261256991184</v>
+        <v>81.33155313145086</v>
       </c>
     </row>
     <row r="8">
@@ -588,11 +588,11 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>01/04/2025</t>
+          <t>01/07/2025</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>81.83249814315128</v>
+        <v>81.91001737660264</v>
       </c>
     </row>
     <row r="9">
@@ -608,11 +608,11 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>01/04/2013</t>
+          <t>01/07/2013</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>45.51490501263478</v>
+        <v>45.70811353931173</v>
       </c>
     </row>
     <row r="10">
@@ -628,11 +628,11 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>01/04/2015</t>
+          <t>01/07/2015</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>45.40373533291675</v>
+        <v>45.2806463430331</v>
       </c>
     </row>
     <row r="11">
@@ -648,11 +648,11 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>01/04/2017</t>
+          <t>01/07/2017</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>43.63099869346291</v>
+        <v>44.05706468633965</v>
       </c>
     </row>
     <row r="12">
@@ -668,11 +668,11 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>01/04/2019</t>
+          <t>01/07/2019</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>44.80581022010754</v>
+        <v>44.99828584396835</v>
       </c>
     </row>
     <row r="13">
@@ -688,11 +688,11 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>01/04/2021</t>
+          <t>01/07/2021</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>41.97968547410927</v>
+        <v>43.6102908149125</v>
       </c>
     </row>
     <row r="14">
@@ -708,11 +708,11 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>01/04/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>45.99393307422505</v>
+        <v>46.36952445883757</v>
       </c>
     </row>
     <row r="15">
@@ -728,11 +728,11 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>01/04/2025</t>
+          <t>01/07/2025</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>48.09755272040089</v>
+        <v>48.10641995021838</v>
       </c>
     </row>
     <row r="16">
@@ -748,11 +748,11 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>01/04/2013</t>
+          <t>01/07/2013</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3.693785299358697</v>
+        <v>3.446872645064055</v>
       </c>
     </row>
     <row r="17">
@@ -768,11 +768,11 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>01/04/2015</t>
+          <t>01/07/2015</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>4.169766219339225</v>
+        <v>4.479252269824454</v>
       </c>
     </row>
     <row r="18">
@@ -788,11 +788,11 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>01/04/2017</t>
+          <t>01/07/2017</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>6.569385927567932</v>
+        <v>6.299589603283174</v>
       </c>
     </row>
     <row r="19">
@@ -808,11 +808,11 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>01/04/2019</t>
+          <t>01/07/2019</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>6.187865072917875</v>
+        <v>6.074872404019334</v>
       </c>
     </row>
     <row r="20">
@@ -828,11 +828,11 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>01/04/2021</t>
+          <t>01/07/2021</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>6.971815150253811</v>
+        <v>6.316121448436022</v>
       </c>
     </row>
     <row r="21">
@@ -848,11 +848,11 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>01/04/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>4.013650582993648</v>
+        <v>3.858682271840615</v>
       </c>
     </row>
     <row r="22">
@@ -868,11 +868,11 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>01/04/2025</t>
+          <t>01/07/2025</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>2.939462030969416</v>
+        <v>2.838961160944911</v>
       </c>
     </row>
     <row r="23">
@@ -888,11 +888,11 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>01/04/2013</t>
+          <t>01/07/2013</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>29.16117146049996</v>
+        <v>29.32027128862095</v>
       </c>
     </row>
     <row r="24">
@@ -908,11 +908,11 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>01/04/2015</t>
+          <t>01/07/2015</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>29.54096864740481</v>
+        <v>29.43494490044456</v>
       </c>
     </row>
     <row r="25">
@@ -928,11 +928,11 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>01/04/2017</t>
+          <t>01/07/2017</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>29.52822756254985</v>
+        <v>29.44107875708423</v>
       </c>
     </row>
     <row r="26">
@@ -948,11 +948,11 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>01/04/2019</t>
+          <t>01/07/2019</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>29.24209895168465</v>
+        <v>29.22756749187587</v>
       </c>
     </row>
     <row r="27">
@@ -968,11 +968,11 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>01/04/2021</t>
+          <t>01/07/2021</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>31.78558271495075</v>
+        <v>30.87148905262957</v>
       </c>
     </row>
     <row r="28">
@@ -988,11 +988,11 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>01/04/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>31.25414731254147</v>
+        <v>31.10334640077269</v>
       </c>
     </row>
     <row r="29">
@@ -1008,11 +1008,11 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>01/04/2025</t>
+          <t>01/07/2025</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>30.79548339178098</v>
+        <v>30.96463626543934</v>
       </c>
     </row>
     <row r="30">
@@ -1028,11 +1028,11 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>01/04/2013</t>
+          <t>01/07/2013</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>49.20818693432935</v>
+        <v>49.15498618437579</v>
       </c>
     </row>
     <row r="31">
@@ -1048,11 +1048,11 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>01/04/2015</t>
+          <t>01/07/2015</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>49.57300562382837</v>
+        <v>49.76039366726403</v>
       </c>
     </row>
     <row r="32">
@@ -1068,11 +1068,11 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>01/04/2017</t>
+          <t>01/07/2017</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>50.20038462103085</v>
+        <v>50.35665428962282</v>
       </c>
     </row>
     <row r="33">
@@ -1088,11 +1088,11 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>01/04/2019</t>
+          <t>01/07/2019</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>50.994158833314</v>
+        <v>51.07267538713369</v>
       </c>
     </row>
     <row r="34">
@@ -1108,11 +1108,11 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>01/04/2021</t>
+          <t>01/07/2021</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>48.95150062436308</v>
+        <v>49.92641226334853</v>
       </c>
     </row>
     <row r="35">
@@ -1128,11 +1128,11 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>01/04/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>50.00710967864252</v>
+        <v>50.22773327273071</v>
       </c>
     </row>
     <row r="36">
@@ -1148,11 +1148,11 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>01/04/2025</t>
+          <t>01/07/2025</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>51.0370147513703</v>
+        <v>50.94538111116329</v>
       </c>
     </row>
     <row r="37">
@@ -1168,11 +1168,11 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>01/04/2013</t>
+          <t>01/07/2013</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>75.96452246726774</v>
+        <v>76.15476299624095</v>
       </c>
     </row>
     <row r="38">
@@ -1188,11 +1188,11 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>01/04/2015</t>
+          <t>01/07/2015</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>76.96066854391862</v>
+        <v>77.14778191055066</v>
       </c>
     </row>
     <row r="39">
@@ -1208,11 +1208,11 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>01/04/2017</t>
+          <t>01/07/2017</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>78.04030951952493</v>
+        <v>78.12191044561484</v>
       </c>
     </row>
     <row r="40">
@@ -1228,11 +1228,11 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>01/04/2019</t>
+          <t>01/07/2019</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>78.6671663900341</v>
+        <v>78.67344209681733</v>
       </c>
     </row>
     <row r="41">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>01/04/2021</t>
+          <t>01/07/2021</t>
         </is>
       </c>
       <c r="D41" t="n">
@@ -1268,11 +1268,11 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>01/04/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>79.97745724802311</v>
+        <v>80.17810316608296</v>
       </c>
     </row>
     <row r="43">
@@ -1288,11 +1288,11 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>01/04/2025</t>
+          <t>01/07/2025</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>80.88755737762359</v>
+        <v>80.85832851814887</v>
       </c>
     </row>
     <row r="44">
@@ -1308,11 +1308,11 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>01/04/2013</t>
+          <t>01/07/2013</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>39.00875920450998</v>
+        <v>39.48106720454754</v>
       </c>
     </row>
     <row r="45">
@@ -1328,11 +1328,11 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>01/04/2015</t>
+          <t>01/07/2015</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>40.19075302025615</v>
+        <v>40.27760137893495</v>
       </c>
     </row>
     <row r="46">
@@ -1348,11 +1348,11 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>01/04/2017</t>
+          <t>01/07/2017</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>36.60968148281447</v>
+        <v>37.07645018065467</v>
       </c>
     </row>
     <row r="47">
@@ -1368,11 +1368,11 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>01/04/2019</t>
+          <t>01/07/2019</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>37.50602345130375</v>
+        <v>37.60007132031738</v>
       </c>
     </row>
     <row r="48">
@@ -1388,7 +1388,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>01/04/2021</t>
+          <t>01/07/2021</t>
         </is>
       </c>
       <c r="D48" t="n">
@@ -1408,11 +1408,11 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>01/04/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>37.94931403110196</v>
+        <v>38.76383731366924</v>
       </c>
     </row>
     <row r="50">
@@ -1428,11 +1428,11 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>01/04/2025</t>
+          <t>01/07/2025</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>40.44290269455833</v>
+        <v>40.83101328990912</v>
       </c>
     </row>
     <row r="51">
@@ -1448,11 +1448,11 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>01/04/2013</t>
+          <t>01/07/2013</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>4.388783811080302</v>
+        <v>3.931420188869533</v>
       </c>
     </row>
     <row r="52">
@@ -1468,11 +1468,11 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>01/04/2015</t>
+          <t>01/07/2015</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>4.645290217095104</v>
+        <v>4.933321237412683</v>
       </c>
     </row>
     <row r="53">
@@ -1488,11 +1488,11 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>01/04/2017</t>
+          <t>01/07/2017</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>6.947993521684362</v>
+        <v>6.523341302511191</v>
       </c>
     </row>
     <row r="54">
@@ -1508,11 +1508,11 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>01/04/2019</t>
+          <t>01/07/2019</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>6.501757955417537</v>
+        <v>6.440224658999733</v>
       </c>
     </row>
     <row r="55">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>01/04/2021</t>
+          <t>01/07/2021</t>
         </is>
       </c>
       <c r="D55" t="n">
@@ -1548,11 +1548,11 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>01/04/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>4.851975132526726</v>
+        <v>4.718325971031836</v>
       </c>
     </row>
     <row r="57">
@@ -1568,11 +1568,11 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>01/04/2025</t>
+          <t>01/07/2025</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>3.628368197904622</v>
+        <v>3.475687695890459</v>
       </c>
     </row>
     <row r="58">
@@ -1588,11 +1588,11 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>01/04/2013</t>
+          <t>01/07/2013</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>32.56697945167747</v>
+        <v>32.74227560282387</v>
       </c>
     </row>
     <row r="59">
@@ -1608,11 +1608,11 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>01/04/2015</t>
+          <t>01/07/2015</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>32.12462530656735</v>
+        <v>31.93867368230065</v>
       </c>
     </row>
     <row r="60">
@@ -1628,11 +1628,11 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>01/04/2017</t>
+          <t>01/07/2017</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>34.48263451502609</v>
+        <v>34.52211896244899</v>
       </c>
     </row>
     <row r="61">
@@ -1648,11 +1648,11 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>01/04/2019</t>
+          <t>01/07/2019</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>34.66116970962503</v>
+        <v>34.63492912543461</v>
       </c>
     </row>
     <row r="62">
@@ -1668,7 +1668,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>01/04/2021</t>
+          <t>01/07/2021</t>
         </is>
       </c>
       <c r="D62" t="n">
@@ -1688,11 +1688,11 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>01/04/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>37.17616808439443</v>
+        <v>36.69593988138188</v>
       </c>
     </row>
     <row r="64">
@@ -1708,11 +1708,11 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>01/04/2025</t>
+          <t>01/07/2025</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>36.81628648516066</v>
+        <v>36.55162753234929</v>
       </c>
     </row>
     <row r="65">
@@ -1728,11 +1728,11 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>01/04/2013</t>
+          <t>01/07/2013</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>43.39754301559029</v>
+        <v>43.41248739341707</v>
       </c>
     </row>
     <row r="66">
@@ -1748,11 +1748,11 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>01/04/2015</t>
+          <t>01/07/2015</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>44.83604323735126</v>
+        <v>45.20910822825002</v>
       </c>
     </row>
     <row r="67">
@@ -1768,11 +1768,11 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>01/04/2017</t>
+          <t>01/07/2017</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>43.55767500449883</v>
+        <v>43.59979148316586</v>
       </c>
     </row>
     <row r="68">
@@ -1788,11 +1788,11 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>01/04/2019</t>
+          <t>01/07/2019</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>44.00778140672128</v>
+        <v>44.03851297138272</v>
       </c>
     </row>
     <row r="69">
@@ -1808,7 +1808,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>01/04/2021</t>
+          <t>01/07/2021</t>
         </is>
       </c>
       <c r="D69" t="n">
@@ -1828,11 +1828,11 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>01/04/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>42.80128916362868</v>
+        <v>43.48216328470108</v>
       </c>
     </row>
     <row r="71">
@@ -1848,11 +1848,11 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>01/04/2025</t>
+          <t>01/07/2025</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>44.07127089246294</v>
+        <v>44.30670098579959</v>
       </c>
     </row>
     <row r="72">
@@ -1868,11 +1868,11 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>01/04/2013</t>
+          <t>01/07/2013</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>76.63246268656717</v>
+        <v>76.31456491391346</v>
       </c>
     </row>
     <row r="73">
@@ -1888,11 +1888,11 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>01/04/2015</t>
+          <t>01/07/2015</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>77.69619091326297</v>
+        <v>77.78286761337608</v>
       </c>
     </row>
     <row r="74">
@@ -1908,11 +1908,11 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>01/04/2017</t>
+          <t>01/07/2017</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>78.46153846153847</v>
+        <v>77.86811201445349</v>
       </c>
     </row>
     <row r="75">
@@ -1928,11 +1928,11 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>01/04/2019</t>
+          <t>01/07/2019</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>78.76620473848904</v>
+        <v>78.84872824631861</v>
       </c>
     </row>
     <row r="76">
@@ -1948,7 +1948,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>01/04/2021</t>
+          <t>01/07/2021</t>
         </is>
       </c>
       <c r="D76" t="n">
@@ -1968,11 +1968,11 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>01/04/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>78.52760736196319</v>
+        <v>79.11558669001751</v>
       </c>
     </row>
     <row r="78">
@@ -1988,11 +1988,11 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>01/04/2025</t>
+          <t>01/07/2025</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>79.82608695652173</v>
+        <v>79.93049522154648</v>
       </c>
     </row>
     <row r="79">
@@ -2008,11 +2008,11 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>01/04/2013</t>
+          <t>01/07/2013</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>41.18470149253731</v>
+        <v>41.83341088878548</v>
       </c>
     </row>
     <row r="80">
@@ -2028,11 +2028,11 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>01/04/2015</t>
+          <t>01/07/2015</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>42.4506654428637</v>
+        <v>42.05222171323867</v>
       </c>
     </row>
     <row r="81">
@@ -2048,11 +2048,11 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>01/04/2017</t>
+          <t>01/07/2017</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>38.55203619909503</v>
+        <v>38.34688346883468</v>
       </c>
     </row>
     <row r="82">
@@ -2068,11 +2068,11 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>01/04/2019</t>
+          <t>01/07/2019</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>40.32185963343764</v>
+        <v>40.33913431503792</v>
       </c>
     </row>
     <row r="83">
@@ -2088,7 +2088,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>01/04/2021</t>
+          <t>01/07/2021</t>
         </is>
       </c>
       <c r="D83" t="n">
@@ -2108,11 +2108,11 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>01/04/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>39.83347940403155</v>
+        <v>41.02451838879159</v>
       </c>
     </row>
     <row r="85">
@@ -2128,11 +2128,11 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>01/04/2025</t>
+          <t>01/07/2025</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>41.21739130434783</v>
+        <v>39.87836663770634</v>
       </c>
     </row>
     <row r="86">
@@ -2148,11 +2148,11 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>01/04/2013</t>
+          <t>01/07/2013</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>5.270522388059701</v>
+        <v>4.699860400186133</v>
       </c>
     </row>
     <row r="87">
@@ -2168,11 +2168,11 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>01/04/2015</t>
+          <t>01/07/2015</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>4.313905461220743</v>
+        <v>4.031149793861658</v>
       </c>
     </row>
     <row r="88">
@@ -2188,11 +2188,11 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>01/04/2017</t>
+          <t>01/07/2017</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>6.425339366515836</v>
+        <v>6.187895212285456</v>
       </c>
     </row>
     <row r="89">
@@ -2208,11 +2208,11 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>01/04/2019</t>
+          <t>01/07/2019</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>7.375949932945909</v>
+        <v>7.050423917893797</v>
       </c>
     </row>
     <row r="90">
@@ -2228,7 +2228,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>01/04/2021</t>
+          <t>01/07/2021</t>
         </is>
       </c>
       <c r="D90" t="n">
@@ -2248,11 +2248,11 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>01/04/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>4.601226993865031</v>
+        <v>4.46584938704028</v>
       </c>
     </row>
     <row r="92">
@@ -2268,11 +2268,11 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>01/04/2025</t>
+          <t>01/07/2025</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>3.608695652173913</v>
+        <v>3.344917463075586</v>
       </c>
     </row>
     <row r="93">
@@ -2288,11 +2288,11 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>01/04/2013</t>
+          <t>01/07/2013</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>30.17723880597015</v>
+        <v>29.78129362494183</v>
       </c>
     </row>
     <row r="94">
@@ -2308,11 +2308,11 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>01/04/2015</t>
+          <t>01/07/2015</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>30.9775126204681</v>
+        <v>31.65368758589098</v>
       </c>
     </row>
     <row r="95">
@@ -2328,11 +2328,11 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>01/04/2017</t>
+          <t>01/07/2017</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>33.43891402714932</v>
+        <v>33.33333333333333</v>
       </c>
     </row>
     <row r="96">
@@ -2348,11 +2348,11 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>01/04/2019</t>
+          <t>01/07/2019</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>31.0683951721055</v>
+        <v>31.45917001338688</v>
       </c>
     </row>
     <row r="97">
@@ -2368,7 +2368,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>01/04/2021</t>
+          <t>01/07/2021</t>
         </is>
       </c>
       <c r="D97" t="n">
@@ -2388,11 +2388,11 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>01/04/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>34.09290096406661</v>
+        <v>33.62521891418564</v>
       </c>
     </row>
     <row r="99">
@@ -2408,11 +2408,11 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>01/04/2025</t>
+          <t>01/07/2025</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>35.04347826086956</v>
+        <v>36.70721112076455</v>
       </c>
     </row>
     <row r="100">
@@ -2428,11 +2428,11 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>01/04/2013</t>
+          <t>01/07/2013</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>46.50186567164179</v>
+        <v>46.53327128897162</v>
       </c>
     </row>
     <row r="101">
@@ -2448,11 +2448,11 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>01/04/2015</t>
+          <t>01/07/2015</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>46.76457090408444</v>
+        <v>46.08337150710032</v>
       </c>
     </row>
     <row r="102">
@@ -2468,11 +2468,11 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>01/04/2017</t>
+          <t>01/07/2017</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>45.02262443438914</v>
+        <v>44.53477868112014</v>
       </c>
     </row>
     <row r="103">
@@ -2488,11 +2488,11 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>01/04/2019</t>
+          <t>01/07/2019</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>47.74251229324989</v>
+        <v>47.38955823293173</v>
       </c>
     </row>
     <row r="104">
@@ -2508,7 +2508,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>01/04/2021</t>
+          <t>01/07/2021</t>
         </is>
       </c>
       <c r="D104" t="n">
@@ -2528,11 +2528,11 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>01/04/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>44.3908851884312</v>
+        <v>45.49036777583188</v>
       </c>
     </row>
     <row r="106">
@@ -2548,11 +2548,11 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>01/04/2025</t>
+          <t>01/07/2025</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>44.82608695652173</v>
+        <v>43.22328410078192</v>
       </c>
     </row>
   </sheetData>
